--- a/excel_reports/Latesa_Pasley.xlsx
+++ b/excel_reports/Latesa_Pasley.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="815">
   <si>
     <t>Policy Record</t>
   </si>
@@ -1472,39 +1472,6 @@
     <t>24938351</t>
   </si>
   <si>
-    <t>3168472421</t>
-  </si>
-  <si>
-    <t>5386801</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>MCGuire</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice Plan 2 (PPO)</t>
-  </si>
-  <si>
-    <t>09-09-2021</t>
-  </si>
-  <si>
-    <t>10-01-2021</t>
-  </si>
-  <si>
-    <t>3191933362</t>
-  </si>
-  <si>
-    <t>10-04-2022</t>
-  </si>
-  <si>
     <t>3522477969</t>
   </si>
   <si>
@@ -2498,7 +2465,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -2911,12 +2878,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -2924,26 +2891,26 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="B3" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -2952,7 +2919,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -2960,30 +2927,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -2992,12 +2959,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -3005,7 +2972,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -3013,20 +2980,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -3035,12 +3002,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3048,7 +3015,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -3056,7 +3023,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3064,7 +3031,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -3073,7 +3040,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -3082,7 +3049,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3090,7 +3057,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3098,7 +3065,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3106,7 +3073,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -3115,7 +3082,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -4037,7 +4004,7 @@
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>33</v>
@@ -5769,7 +5736,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W249"/>
+  <dimension ref="A1:W246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7918,7 +7885,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:19">
       <c r="A81" s="7" t="s">
         <v>469</v>
       </c>
@@ -7971,7 +7938,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:19">
       <c r="A83" s="7" t="s">
         <v>470</v>
       </c>
@@ -8021,7 +7988,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:19">
       <c r="A85" s="7" t="s">
         <v>475</v>
       </c>
@@ -8071,7 +8038,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:19">
       <c r="A87" s="7" t="s">
         <v>477</v>
       </c>
@@ -8121,7 +8088,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:19">
       <c r="A89" s="7" t="s">
         <v>479</v>
       </c>
@@ -8171,7 +8138,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:19">
       <c r="A91" s="7" t="s">
         <v>481</v>
       </c>
@@ -8221,7 +8188,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:19">
       <c r="A93" s="7" t="s">
         <v>483</v>
       </c>
@@ -8235,1522 +8202,1522 @@
         <v>486</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" t="s">
         <v>487</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="K93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M93" t="s">
-        <v>490</v>
-      </c>
       <c r="N93" t="s">
-        <v>491</v>
+        <v>28</v>
       </c>
       <c r="Q93" s="8" t="s">
         <v>349</v>
       </c>
       <c r="S93" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K95" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" t="s">
+        <v>491</v>
+      </c>
+      <c r="N95" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q95" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="T93" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
-      <c r="A94" s="7" t="s">
+      <c r="S95" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I94" s="8" t="s">
+      <c r="B97" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J97" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K94" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" t="s">
-        <v>19</v>
-      </c>
-      <c r="M94" t="s">
-        <v>493</v>
-      </c>
-      <c r="N94" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q94" s="8" t="s">
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q97" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S94" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="A96" s="7" t="s">
+      <c r="S97" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E99" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s">
+        <v>19</v>
+      </c>
+      <c r="M99" t="s">
+        <v>360</v>
+      </c>
+      <c r="N99" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S99" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J96" s="8" t="s">
+      <c r="B101" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J101" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K96" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" t="s">
-        <v>19</v>
-      </c>
-      <c r="M96" t="s">
-        <v>498</v>
-      </c>
-      <c r="N96" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q96" s="8" t="s">
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" t="s">
+        <v>78</v>
+      </c>
+      <c r="N101" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q101" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S96" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
-      <c r="A98" s="7" t="s">
+      <c r="S101" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J98" s="8" t="s">
+      <c r="D103" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" t="s">
+        <v>491</v>
+      </c>
+      <c r="N103" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S103" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" t="s">
+        <v>506</v>
+      </c>
+      <c r="N105" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S105" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K98" t="s">
-        <v>20</v>
-      </c>
-      <c r="L98" t="s">
-        <v>19</v>
-      </c>
-      <c r="M98" t="s">
-        <v>502</v>
-      </c>
-      <c r="N98" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q98" s="8" t="s">
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" t="s">
+        <v>454</v>
+      </c>
+      <c r="N107" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q107" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S98" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
-      <c r="A100" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I100" s="8" t="s">
+      <c r="S107" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K109" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" t="s">
+        <v>266</v>
+      </c>
+      <c r="M109" t="s">
+        <v>255</v>
+      </c>
+      <c r="N109" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S109" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="U109" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K111" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" t="s">
+        <v>56</v>
+      </c>
+      <c r="M111" t="s">
+        <v>51</v>
+      </c>
+      <c r="N111" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" t="s">
+        <v>58</v>
+      </c>
+      <c r="P111" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q111" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S111" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s">
+        <v>19</v>
+      </c>
+      <c r="M113" t="s">
+        <v>518</v>
+      </c>
+      <c r="N113" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S113" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K115" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" t="s">
+        <v>58</v>
+      </c>
+      <c r="N115" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S115" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I117" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J117" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K100" t="s">
-        <v>20</v>
-      </c>
-      <c r="L100" t="s">
-        <v>19</v>
-      </c>
-      <c r="M100" t="s">
+      <c r="K117" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" t="s">
+        <v>169</v>
+      </c>
+      <c r="N117" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S117" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" t="s">
+        <v>51</v>
+      </c>
+      <c r="N119" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S119" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K121" t="s">
+        <v>20</v>
+      </c>
+      <c r="L121" t="s">
+        <v>19</v>
+      </c>
+      <c r="M121" t="s">
+        <v>191</v>
+      </c>
+      <c r="N121" t="s">
         <v>21</v>
       </c>
-      <c r="N100" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q100" s="8" t="s">
+      <c r="Q121" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S100" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
-      <c r="A102" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" s="8" t="s">
+      <c r="S121" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J123" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K102" t="s">
-        <v>20</v>
-      </c>
-      <c r="L102" t="s">
-        <v>19</v>
-      </c>
-      <c r="M102" t="s">
+      <c r="K123" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" t="s">
+        <v>287</v>
+      </c>
+      <c r="N123" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q123" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S123" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K125" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" t="s">
+        <v>287</v>
+      </c>
+      <c r="N125" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S125" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K127" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" t="s">
+        <v>400</v>
+      </c>
+      <c r="N127" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S127" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K129" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" t="s">
+        <v>491</v>
+      </c>
+      <c r="N129" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q129" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S129" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" t="s">
+        <v>491</v>
+      </c>
+      <c r="N131" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S131" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K133" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" t="s">
+        <v>547</v>
+      </c>
+      <c r="N133" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q133" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S133" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K135" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" t="s">
         <v>360</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N135" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q135" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S135" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K137" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" t="s">
+        <v>169</v>
+      </c>
+      <c r="N137" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q137" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S137" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K139" t="s">
+        <v>20</v>
+      </c>
+      <c r="L139" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" t="s">
+        <v>169</v>
+      </c>
+      <c r="N139" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q139" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S139" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K141" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" t="s">
+        <v>358</v>
+      </c>
+      <c r="N141" t="s">
         <v>22</v>
       </c>
-      <c r="Q102" s="8" t="s">
+      <c r="Q141" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S102" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
-      <c r="A104" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I104" s="8" t="s">
+      <c r="S141" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K143" t="s">
+        <v>20</v>
+      </c>
+      <c r="L143" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" t="s">
+        <v>563</v>
+      </c>
+      <c r="N143" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q143" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S143" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K145" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" t="s">
+        <v>19</v>
+      </c>
+      <c r="M145" t="s">
+        <v>400</v>
+      </c>
+      <c r="N145" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q145" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S145" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K147" t="s">
+        <v>20</v>
+      </c>
+      <c r="L147" t="s">
+        <v>19</v>
+      </c>
+      <c r="M147" t="s">
+        <v>302</v>
+      </c>
+      <c r="N147" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q147" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S147" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="U147" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K149" t="s">
+        <v>20</v>
+      </c>
+      <c r="L149" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149" t="s">
+        <v>274</v>
+      </c>
+      <c r="N149" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q149" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S149" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I151" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J104" s="8" t="s">
+      <c r="J151" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s">
-        <v>19</v>
-      </c>
-      <c r="M104" t="s">
-        <v>78</v>
-      </c>
-      <c r="N104" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q104" s="8" t="s">
+      <c r="K151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151" t="s">
+        <v>190</v>
+      </c>
+      <c r="M151" t="s">
+        <v>191</v>
+      </c>
+      <c r="N151" t="s">
+        <v>28</v>
+      </c>
+      <c r="P151" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q151" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S104" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
-      <c r="A106" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="K106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>19</v>
-      </c>
-      <c r="M106" t="s">
-        <v>502</v>
-      </c>
-      <c r="N106" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S106" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
-      <c r="A108" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="K108" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" t="s">
-        <v>19</v>
-      </c>
-      <c r="M108" t="s">
-        <v>517</v>
-      </c>
-      <c r="N108" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q108" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S108" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
-      <c r="A110" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K110" t="s">
-        <v>20</v>
-      </c>
-      <c r="L110" t="s">
-        <v>19</v>
-      </c>
-      <c r="M110" t="s">
-        <v>454</v>
-      </c>
-      <c r="N110" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q110" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S110" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
-      <c r="A112" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K112" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" t="s">
-        <v>266</v>
-      </c>
-      <c r="M112" t="s">
-        <v>255</v>
-      </c>
-      <c r="N112" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q112" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S112" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="U112" t="s">
+      <c r="R151" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U151" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19">
-      <c r="A114" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K114" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" t="s">
-        <v>56</v>
-      </c>
-      <c r="M114" t="s">
-        <v>51</v>
-      </c>
-      <c r="N114" t="s">
-        <v>28</v>
-      </c>
-      <c r="O114" t="s">
-        <v>58</v>
-      </c>
-      <c r="P114" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q114" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S114" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
-      <c r="A116" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J116" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K116" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" t="s">
-        <v>19</v>
-      </c>
-      <c r="M116" t="s">
-        <v>529</v>
-      </c>
-      <c r="N116" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q116" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S116" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
-      <c r="A118" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J118" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K118" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" t="s">
-        <v>19</v>
-      </c>
-      <c r="M118" t="s">
-        <v>58</v>
-      </c>
-      <c r="N118" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q118" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S118" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
-      <c r="A120" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K120" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" t="s">
-        <v>19</v>
-      </c>
-      <c r="M120" t="s">
-        <v>169</v>
-      </c>
-      <c r="N120" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q120" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S120" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
-      <c r="A122" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K122" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" t="s">
-        <v>19</v>
-      </c>
-      <c r="M122" t="s">
-        <v>51</v>
-      </c>
-      <c r="N122" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q122" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S122" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19">
-      <c r="A124" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" t="s">
-        <v>191</v>
-      </c>
-      <c r="N124" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q124" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S124" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19">
-      <c r="A126" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K126" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" t="s">
-        <v>19</v>
-      </c>
-      <c r="M126" t="s">
-        <v>287</v>
-      </c>
-      <c r="N126" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q126" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S126" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
-      <c r="A128" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J128" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K128" t="s">
-        <v>20</v>
-      </c>
-      <c r="L128" t="s">
-        <v>19</v>
-      </c>
-      <c r="M128" t="s">
-        <v>287</v>
-      </c>
-      <c r="N128" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q128" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S128" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19">
-      <c r="A130" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K130" t="s">
-        <v>20</v>
-      </c>
-      <c r="L130" t="s">
-        <v>19</v>
-      </c>
-      <c r="M130" t="s">
-        <v>400</v>
-      </c>
-      <c r="N130" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q130" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S130" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
-      <c r="A132" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K132" t="s">
-        <v>20</v>
-      </c>
-      <c r="L132" t="s">
-        <v>19</v>
-      </c>
-      <c r="M132" t="s">
-        <v>502</v>
-      </c>
-      <c r="N132" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q132" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S132" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
-      <c r="A134" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J134" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K134" t="s">
-        <v>20</v>
-      </c>
-      <c r="L134" t="s">
-        <v>19</v>
-      </c>
-      <c r="M134" t="s">
-        <v>502</v>
-      </c>
-      <c r="N134" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q134" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S134" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="A136" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J136" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K136" t="s">
-        <v>20</v>
-      </c>
-      <c r="L136" t="s">
-        <v>19</v>
-      </c>
-      <c r="M136" t="s">
-        <v>558</v>
-      </c>
-      <c r="N136" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q136" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S136" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19">
-      <c r="A138" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J138" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K138" t="s">
-        <v>20</v>
-      </c>
-      <c r="L138" t="s">
-        <v>19</v>
-      </c>
-      <c r="M138" t="s">
-        <v>360</v>
-      </c>
-      <c r="N138" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q138" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S138" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
-      <c r="A140" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J140" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K140" t="s">
-        <v>20</v>
-      </c>
-      <c r="L140" t="s">
-        <v>19</v>
-      </c>
-      <c r="M140" t="s">
-        <v>169</v>
-      </c>
-      <c r="N140" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q140" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S140" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
-      <c r="A142" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J142" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K142" t="s">
-        <v>20</v>
-      </c>
-      <c r="L142" t="s">
-        <v>19</v>
-      </c>
-      <c r="M142" t="s">
-        <v>169</v>
-      </c>
-      <c r="N142" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q142" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S142" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19">
-      <c r="A144" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J144" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K144" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" t="s">
-        <v>19</v>
-      </c>
-      <c r="M144" t="s">
-        <v>358</v>
-      </c>
-      <c r="N144" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q144" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S144" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21">
-      <c r="A146" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J146" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K146" t="s">
-        <v>20</v>
-      </c>
-      <c r="L146" t="s">
-        <v>19</v>
-      </c>
-      <c r="M146" t="s">
-        <v>574</v>
-      </c>
-      <c r="N146" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q146" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S146" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J148" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L148" t="s">
-        <v>19</v>
-      </c>
-      <c r="M148" t="s">
-        <v>400</v>
-      </c>
-      <c r="N148" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q148" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S148" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21">
-      <c r="A150" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H150" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J150" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K150" t="s">
-        <v>20</v>
-      </c>
-      <c r="L150" t="s">
-        <v>19</v>
-      </c>
-      <c r="M150" t="s">
-        <v>302</v>
-      </c>
-      <c r="N150" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q150" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S150" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="U150" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:21">
       <c r="A152" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>341</v>
@@ -9765,7 +9732,7 @@
         <v>342</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J152" s="8" t="s">
         <v>343</v>
@@ -9777,7 +9744,7 @@
         <v>19</v>
       </c>
       <c r="M152" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="N152" t="s">
         <v>28</v>
@@ -9791,16 +9758,16 @@
     </row>
     <row r="154" spans="1:21">
       <c r="A154" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>341</v>
@@ -9815,7 +9782,7 @@
         <v>342</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J154" s="8" t="s">
         <v>343</v>
@@ -9824,239 +9791,233 @@
         <v>20</v>
       </c>
       <c r="L154" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="M154" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="N154" t="s">
         <v>28</v>
-      </c>
-      <c r="P154" t="s">
-        <v>169</v>
       </c>
       <c r="Q154" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="R154" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="U154" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21">
-      <c r="A155" s="7" t="s">
+      <c r="S154" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K156" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156" t="s">
+        <v>191</v>
+      </c>
+      <c r="N156" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q156" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S156" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K158" t="s">
+        <v>20</v>
+      </c>
+      <c r="L158" t="s">
+        <v>19</v>
+      </c>
+      <c r="M158" t="s">
         <v>585</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J155" s="8" t="s">
+      <c r="N158" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q158" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S158" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K155" t="s">
-        <v>20</v>
-      </c>
-      <c r="L155" t="s">
-        <v>19</v>
-      </c>
-      <c r="M155" t="s">
-        <v>169</v>
-      </c>
-      <c r="N155" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q155" s="8" t="s">
+      <c r="K160" t="s">
+        <v>20</v>
+      </c>
+      <c r="L160" t="s">
+        <v>19</v>
+      </c>
+      <c r="M160" t="s">
+        <v>360</v>
+      </c>
+      <c r="N160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q160" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S155" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21">
-      <c r="A157" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H157" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I157" s="8" t="s">
+      <c r="S160" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I162" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J157" s="8" t="s">
+      <c r="J162" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K157" t="s">
-        <v>20</v>
-      </c>
-      <c r="L157" t="s">
-        <v>19</v>
-      </c>
-      <c r="M157" t="s">
-        <v>153</v>
-      </c>
-      <c r="N157" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q157" s="8" t="s">
+      <c r="K162" t="s">
+        <v>20</v>
+      </c>
+      <c r="L162" t="s">
+        <v>19</v>
+      </c>
+      <c r="M162" t="s">
+        <v>191</v>
+      </c>
+      <c r="N162" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q162" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S157" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21">
-      <c r="A159" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J159" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K159" t="s">
-        <v>20</v>
-      </c>
-      <c r="L159" t="s">
-        <v>19</v>
-      </c>
-      <c r="M159" t="s">
-        <v>191</v>
-      </c>
-      <c r="N159" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q159" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S159" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19">
-      <c r="A161" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H161" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I161" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J161" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K161" t="s">
-        <v>20</v>
-      </c>
-      <c r="L161" t="s">
-        <v>19</v>
-      </c>
-      <c r="M161" t="s">
-        <v>596</v>
-      </c>
-      <c r="N161" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q161" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S161" s="10" t="s">
+      <c r="S162" s="10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>125</v>
+        <v>591</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>341</v>
@@ -10071,22 +10032,22 @@
         <v>342</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>343</v>
+        <v>594</v>
       </c>
       <c r="K163" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L163" t="s">
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>360</v>
+        <v>595</v>
       </c>
       <c r="N163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q163" s="8" t="s">
         <v>349</v>
@@ -10097,16 +10058,16 @@
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>602</v>
+        <v>65</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>603</v>
+        <v>66</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>341</v>
@@ -10133,10 +10094,10 @@
         <v>19</v>
       </c>
       <c r="M165" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="N165" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Q165" s="8" t="s">
         <v>349</v>
@@ -10145,418 +10106,421 @@
         <v>344</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:19">
+      <c r="A167" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K167" t="s">
+        <v>20</v>
+      </c>
+      <c r="L167" t="s">
+        <v>19</v>
+      </c>
+      <c r="M167" t="s">
+        <v>274</v>
+      </c>
+      <c r="N167" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q167" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S167" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K169" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169" t="s">
+        <v>19</v>
+      </c>
+      <c r="M169" t="s">
+        <v>40</v>
+      </c>
+      <c r="N169" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q169" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S169" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K171" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" t="s">
+        <v>19</v>
+      </c>
+      <c r="M171" t="s">
+        <v>58</v>
+      </c>
+      <c r="N171" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q171" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S171" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I166" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J166" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K166" t="s">
-        <v>33</v>
-      </c>
-      <c r="L166" t="s">
-        <v>19</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="C173" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="N166" t="s">
+      <c r="D173" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K173" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" t="s">
+        <v>19</v>
+      </c>
+      <c r="M173" t="s">
+        <v>608</v>
+      </c>
+      <c r="N173" t="s">
         <v>21</v>
       </c>
-      <c r="Q166" s="8" t="s">
+      <c r="Q173" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S166" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19">
-      <c r="A168" s="7" t="s">
+      <c r="S173" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H168" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I168" s="8" t="s">
+      <c r="E175" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" t="s">
+        <v>19</v>
+      </c>
+      <c r="M175" t="s">
+        <v>612</v>
+      </c>
+      <c r="N175" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q175" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S175" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
+      <c r="A177" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I177" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J168" s="8" t="s">
+      <c r="J177" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K168" t="s">
-        <v>20</v>
-      </c>
-      <c r="L168" t="s">
-        <v>19</v>
-      </c>
-      <c r="M168" t="s">
-        <v>51</v>
-      </c>
-      <c r="N168" t="s">
+      <c r="K177" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" t="s">
+        <v>19</v>
+      </c>
+      <c r="M177" t="s">
+        <v>445</v>
+      </c>
+      <c r="N177" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q177" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S177" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K179" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" t="s">
+        <v>19</v>
+      </c>
+      <c r="M179" t="s">
+        <v>148</v>
+      </c>
+      <c r="N179" t="s">
         <v>67</v>
       </c>
-      <c r="Q168" s="8" t="s">
+      <c r="Q179" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S168" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19">
-      <c r="A170" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I170" s="8" t="s">
+      <c r="S179" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
+      <c r="A181" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I181" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J170" s="8" t="s">
+      <c r="J181" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K170" t="s">
-        <v>20</v>
-      </c>
-      <c r="L170" t="s">
-        <v>19</v>
-      </c>
-      <c r="M170" t="s">
-        <v>274</v>
-      </c>
-      <c r="N170" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q170" s="8" t="s">
+      <c r="K181" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" t="s">
+        <v>190</v>
+      </c>
+      <c r="M181" t="s">
+        <v>547</v>
+      </c>
+      <c r="N181" t="s">
+        <v>28</v>
+      </c>
+      <c r="P181" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q181" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S170" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19">
-      <c r="A172" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F172" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G172" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I172" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J172" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K172" t="s">
-        <v>20</v>
-      </c>
-      <c r="L172" t="s">
-        <v>19</v>
-      </c>
-      <c r="M172" t="s">
-        <v>40</v>
-      </c>
-      <c r="N172" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q172" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S172" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19">
-      <c r="A174" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I174" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J174" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K174" t="s">
-        <v>20</v>
-      </c>
-      <c r="L174" t="s">
-        <v>19</v>
-      </c>
-      <c r="M174" t="s">
-        <v>58</v>
-      </c>
-      <c r="N174" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q174" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S174" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19">
-      <c r="A176" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J176" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K176" t="s">
-        <v>20</v>
-      </c>
-      <c r="L176" t="s">
-        <v>19</v>
-      </c>
-      <c r="M176" t="s">
-        <v>619</v>
-      </c>
-      <c r="N176" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q176" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S176" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19">
-      <c r="A178" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H178" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I178" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J178" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K178" t="s">
-        <v>20</v>
-      </c>
-      <c r="L178" t="s">
-        <v>19</v>
-      </c>
-      <c r="M178" t="s">
+      <c r="R181" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="N178" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q178" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S178" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19">
-      <c r="A180" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H180" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I180" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J180" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K180" t="s">
-        <v>20</v>
-      </c>
-      <c r="L180" t="s">
-        <v>19</v>
-      </c>
-      <c r="M180" t="s">
-        <v>445</v>
-      </c>
-      <c r="N180" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q180" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S180" s="10" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:19">
       <c r="A182" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>146</v>
+        <v>621</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>147</v>
+        <v>622</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>341</v>
@@ -10583,10 +10547,10 @@
         <v>19</v>
       </c>
       <c r="M182" t="s">
-        <v>148</v>
+        <v>625</v>
       </c>
       <c r="N182" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="Q182" s="8" t="s">
         <v>349</v>
@@ -10597,16 +10561,16 @@
     </row>
     <row r="184" spans="1:19">
       <c r="A184" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>341</v>
@@ -10633,33 +10597,33 @@
         <v>190</v>
       </c>
       <c r="M184" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="N184" t="s">
         <v>28</v>
       </c>
       <c r="P184" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="Q184" s="8" t="s">
         <v>349</v>
       </c>
       <c r="R184" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>341</v>
@@ -10686,7 +10650,7 @@
         <v>19</v>
       </c>
       <c r="M185" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="N185" t="s">
         <v>28</v>
@@ -10700,16 +10664,16 @@
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>341</v>
@@ -10724,7 +10688,7 @@
         <v>342</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>343</v>
@@ -10733,536 +10697,530 @@
         <v>20</v>
       </c>
       <c r="L187" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="M187" t="s">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="N187" t="s">
         <v>28</v>
-      </c>
-      <c r="P187" t="s">
-        <v>558</v>
       </c>
       <c r="Q187" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="R187" s="8" t="s">
+      <c r="S187" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K189" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" t="s">
+        <v>19</v>
+      </c>
+      <c r="M189" t="s">
+        <v>400</v>
+      </c>
+      <c r="N189" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q189" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S189" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J191" s="8" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
-      <c r="A188" s="7" t="s">
+      <c r="K191" t="s">
+        <v>33</v>
+      </c>
+      <c r="L191" t="s">
+        <v>117</v>
+      </c>
+      <c r="M191" t="s">
+        <v>136</v>
+      </c>
+      <c r="N191" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q191" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S191" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G188" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H188" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I188" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J188" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K188" t="s">
-        <v>20</v>
-      </c>
-      <c r="L188" t="s">
-        <v>19</v>
-      </c>
-      <c r="M188" t="s">
-        <v>636</v>
-      </c>
-      <c r="N188" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q188" s="8" t="s">
+      <c r="B193" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="K193" t="s">
+        <v>33</v>
+      </c>
+      <c r="L193" t="s">
+        <v>19</v>
+      </c>
+      <c r="M193" t="s">
+        <v>585</v>
+      </c>
+      <c r="N193" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q193" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S188" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19">
-      <c r="A190" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="D190" s="8" t="s">
+      <c r="S193" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="E190" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H190" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I190" s="8" t="s">
+      <c r="B195" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="K195" t="s">
+        <v>33</v>
+      </c>
+      <c r="L195" t="s">
+        <v>56</v>
+      </c>
+      <c r="M195" t="s">
+        <v>652</v>
+      </c>
+      <c r="N195" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q195" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S195" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="K197" t="s">
+        <v>33</v>
+      </c>
+      <c r="L197" t="s">
+        <v>19</v>
+      </c>
+      <c r="M197" t="s">
+        <v>78</v>
+      </c>
+      <c r="N197" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q197" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S197" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="K199" t="s">
+        <v>33</v>
+      </c>
+      <c r="L199" t="s">
+        <v>19</v>
+      </c>
+      <c r="M199" t="s">
+        <v>78</v>
+      </c>
+      <c r="N199" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q199" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S199" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I201" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J190" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K190" t="s">
-        <v>20</v>
-      </c>
-      <c r="L190" t="s">
-        <v>19</v>
-      </c>
-      <c r="M190" t="s">
+      <c r="J201" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="K201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L201" t="s">
+        <v>19</v>
+      </c>
+      <c r="M201" t="s">
+        <v>34</v>
+      </c>
+      <c r="N201" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q201" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S201" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="K203" t="s">
+        <v>33</v>
+      </c>
+      <c r="L203" t="s">
+        <v>117</v>
+      </c>
+      <c r="M203" t="s">
+        <v>204</v>
+      </c>
+      <c r="N203" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q203" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S203" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="K205" t="s">
+        <v>33</v>
+      </c>
+      <c r="L205" t="s">
+        <v>19</v>
+      </c>
+      <c r="M205" t="s">
         <v>400</v>
       </c>
-      <c r="N190" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q190" s="8" t="s">
+      <c r="N205" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q205" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S190" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19">
-      <c r="A192" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I192" s="8" t="s">
+      <c r="S205" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I207" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J192" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K192" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" t="s">
-        <v>19</v>
-      </c>
-      <c r="M192" t="s">
-        <v>400</v>
-      </c>
-      <c r="N192" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q192" s="8" t="s">
+      <c r="J207" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="K207" t="s">
+        <v>33</v>
+      </c>
+      <c r="L207" t="s">
+        <v>117</v>
+      </c>
+      <c r="M207" t="s">
+        <v>136</v>
+      </c>
+      <c r="N207" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q207" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="S192" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19">
-      <c r="A194" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H194" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I194" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J194" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="K194" t="s">
-        <v>33</v>
-      </c>
-      <c r="L194" t="s">
-        <v>117</v>
-      </c>
-      <c r="M194" t="s">
-        <v>136</v>
-      </c>
-      <c r="N194" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q194" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S194" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19">
-      <c r="A196" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H196" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I196" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J196" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="K196" t="s">
-        <v>33</v>
-      </c>
-      <c r="L196" t="s">
-        <v>19</v>
-      </c>
-      <c r="M196" t="s">
-        <v>596</v>
-      </c>
-      <c r="N196" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q196" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S196" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19">
-      <c r="A198" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H198" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I198" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J198" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="K198" t="s">
-        <v>33</v>
-      </c>
-      <c r="L198" t="s">
-        <v>56</v>
-      </c>
-      <c r="M198" t="s">
-        <v>663</v>
-      </c>
-      <c r="N198" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q198" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S198" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19">
-      <c r="A200" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H200" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I200" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J200" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="K200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L200" t="s">
-        <v>19</v>
-      </c>
-      <c r="M200" t="s">
-        <v>78</v>
-      </c>
-      <c r="N200" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q200" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S200" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19">
-      <c r="A202" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G202" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H202" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I202" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J202" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="K202" t="s">
-        <v>33</v>
-      </c>
-      <c r="L202" t="s">
-        <v>19</v>
-      </c>
-      <c r="M202" t="s">
-        <v>78</v>
-      </c>
-      <c r="N202" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q202" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S202" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19">
-      <c r="A204" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H204" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I204" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J204" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="K204" t="s">
-        <v>33</v>
-      </c>
-      <c r="L204" t="s">
-        <v>19</v>
-      </c>
-      <c r="M204" t="s">
-        <v>34</v>
-      </c>
-      <c r="N204" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q204" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S204" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19">
-      <c r="A206" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G206" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H206" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I206" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J206" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="K206" t="s">
-        <v>33</v>
-      </c>
-      <c r="L206" t="s">
-        <v>117</v>
-      </c>
-      <c r="M206" t="s">
-        <v>204</v>
-      </c>
-      <c r="N206" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q206" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S206" s="10" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="208" spans="1:19">
       <c r="A208" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>679</v>
+        <v>135</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>341</v>
@@ -11277,10 +11235,10 @@
         <v>342</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>680</v>
+        <v>17</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="K208" t="s">
         <v>33</v>
@@ -11289,10 +11247,10 @@
         <v>19</v>
       </c>
       <c r="M208" t="s">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="N208" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q208" s="8" t="s">
         <v>349</v>
@@ -11303,16 +11261,16 @@
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>341</v>
@@ -11327,10 +11285,10 @@
         <v>342</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="K210" t="s">
         <v>33</v>
@@ -11339,1009 +11297,912 @@
         <v>117</v>
       </c>
       <c r="M210" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="N210" t="s">
         <v>28</v>
       </c>
       <c r="Q210" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S210" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
+      <c r="A212" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I212" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J212" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="K212" t="s">
+        <v>33</v>
+      </c>
+      <c r="L212" t="s">
+        <v>19</v>
+      </c>
+      <c r="M212" t="s">
+        <v>143</v>
+      </c>
+      <c r="N212" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q212" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
-      <c r="A211" s="7" t="s">
+      <c r="S212" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
+      <c r="A214" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I214" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J214" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="K214" t="s">
+        <v>33</v>
+      </c>
+      <c r="L214" t="s">
+        <v>19</v>
+      </c>
+      <c r="M214" t="s">
         <v>685</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H211" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I211" s="8" t="s">
+      <c r="N214" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q214" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S214" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
+      <c r="A216" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I216" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J216" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="K216" t="s">
+        <v>33</v>
+      </c>
+      <c r="L216" t="s">
+        <v>117</v>
+      </c>
+      <c r="M216" t="s">
+        <v>122</v>
+      </c>
+      <c r="N216" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q216" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S216" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
+      <c r="A218" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="K218" t="s">
+        <v>33</v>
+      </c>
+      <c r="L218" t="s">
+        <v>19</v>
+      </c>
+      <c r="M218" t="s">
+        <v>400</v>
+      </c>
+      <c r="N218" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q218" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S218" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
+      <c r="A220" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I220" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J211" s="8" t="s">
+      <c r="J220" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="K220" t="s">
+        <v>33</v>
+      </c>
+      <c r="L220" t="s">
+        <v>19</v>
+      </c>
+      <c r="M220" t="s">
+        <v>585</v>
+      </c>
+      <c r="N220" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q220" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S220" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
+      <c r="A222" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I222" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="K222" t="s">
+        <v>33</v>
+      </c>
+      <c r="L222" t="s">
+        <v>19</v>
+      </c>
+      <c r="M222" t="s">
+        <v>51</v>
+      </c>
+      <c r="N222" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q222" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S222" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
+      <c r="A224" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H224" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I224" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J224" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K224" t="s">
         <v>33</v>
       </c>
-      <c r="L211" t="s">
-        <v>19</v>
-      </c>
-      <c r="M211" t="s">
-        <v>138</v>
-      </c>
-      <c r="N211" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q211" s="8" t="s">
+      <c r="L224" t="s">
+        <v>117</v>
+      </c>
+      <c r="M224" t="s">
+        <v>153</v>
+      </c>
+      <c r="N224" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q224" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S224" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
+      <c r="A226" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I226" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J226" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="K226" t="s">
+        <v>33</v>
+      </c>
+      <c r="L226" t="s">
+        <v>117</v>
+      </c>
+      <c r="M226" t="s">
+        <v>153</v>
+      </c>
+      <c r="N226" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q226" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S226" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
+      <c r="A228" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I228" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J228" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="K228" t="s">
+        <v>33</v>
+      </c>
+      <c r="L228" t="s">
+        <v>19</v>
+      </c>
+      <c r="M228" t="s">
+        <v>358</v>
+      </c>
+      <c r="N228" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q228" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S211" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19">
-      <c r="A213" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G213" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H213" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I213" s="8" t="s">
+      <c r="S228" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
+      <c r="A230" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I230" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J213" s="8" t="s">
+      <c r="J230" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="K230" t="s">
+        <v>33</v>
+      </c>
+      <c r="L230" t="s">
+        <v>19</v>
+      </c>
+      <c r="M230" t="s">
+        <v>78</v>
+      </c>
+      <c r="N230" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q230" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S230" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
+      <c r="A232" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I232" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J232" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="K232" t="s">
+        <v>33</v>
+      </c>
+      <c r="L232" t="s">
+        <v>19</v>
+      </c>
+      <c r="M232" t="s">
+        <v>487</v>
+      </c>
+      <c r="N232" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q232" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S232" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
+      <c r="A234" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="K234" t="s">
+        <v>33</v>
+      </c>
+      <c r="L234" t="s">
+        <v>19</v>
+      </c>
+      <c r="M234" t="s">
+        <v>585</v>
+      </c>
+      <c r="N234" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q234" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S234" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
+      <c r="A236" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J236" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="K236" t="s">
+        <v>33</v>
+      </c>
+      <c r="L236" t="s">
+        <v>19</v>
+      </c>
+      <c r="M236" t="s">
+        <v>358</v>
+      </c>
+      <c r="N236" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q236" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S236" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
+      <c r="A238" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="K238" t="s">
+        <v>33</v>
+      </c>
+      <c r="L238" t="s">
+        <v>19</v>
+      </c>
+      <c r="M238" t="s">
+        <v>232</v>
+      </c>
+      <c r="N238" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q238" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="S238" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
+      <c r="A240" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I240" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J240" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="K213" t="s">
+      <c r="K240" t="s">
         <v>33</v>
       </c>
-      <c r="L213" t="s">
+      <c r="L240" t="s">
         <v>117</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M240" t="s">
         <v>287</v>
       </c>
-      <c r="N213" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q213" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S213" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19">
-      <c r="A215" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H215" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I215" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J215" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="K215" t="s">
+      <c r="N240" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q240" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S240" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19">
+      <c r="A242" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F242" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H242" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I242" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J242" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="K242" t="s">
         <v>33</v>
       </c>
-      <c r="L215" t="s">
+      <c r="L242" t="s">
         <v>117</v>
       </c>
-      <c r="M215" t="s">
-        <v>143</v>
-      </c>
-      <c r="N215" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q215" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S215" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19">
-      <c r="A217" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G217" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H217" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I217" s="8" t="s">
+      <c r="M242" t="s">
+        <v>58</v>
+      </c>
+      <c r="N242" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q242" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S242" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19">
+      <c r="A244" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H244" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I244" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J217" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="K217" t="s">
+      <c r="J244" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="K244" t="s">
         <v>33</v>
       </c>
-      <c r="L217" t="s">
-        <v>19</v>
-      </c>
-      <c r="M217" t="s">
-        <v>696</v>
-      </c>
-      <c r="N217" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q217" s="8" t="s">
+      <c r="L244" t="s">
+        <v>56</v>
+      </c>
+      <c r="N244" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q244" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S244" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19">
+      <c r="A246" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I246" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J246" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="K246" t="s">
+        <v>33</v>
+      </c>
+      <c r="L246" t="s">
+        <v>19</v>
+      </c>
+      <c r="M246" t="s">
+        <v>454</v>
+      </c>
+      <c r="N246" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q246" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="S217" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19">
-      <c r="A219" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H219" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I219" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J219" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="K219" t="s">
-        <v>33</v>
-      </c>
-      <c r="L219" t="s">
-        <v>117</v>
-      </c>
-      <c r="M219" t="s">
-        <v>122</v>
-      </c>
-      <c r="N219" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q219" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S219" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19">
-      <c r="A221" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="E221" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F221" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G221" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H221" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I221" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J221" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="K221" t="s">
-        <v>33</v>
-      </c>
-      <c r="L221" t="s">
-        <v>19</v>
-      </c>
-      <c r="M221" t="s">
-        <v>400</v>
-      </c>
-      <c r="N221" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q221" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S221" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19">
-      <c r="A223" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F223" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H223" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I223" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J223" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="K223" t="s">
-        <v>33</v>
-      </c>
-      <c r="L223" t="s">
-        <v>19</v>
-      </c>
-      <c r="M223" t="s">
-        <v>596</v>
-      </c>
-      <c r="N223" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q223" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S223" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19">
-      <c r="A225" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F225" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G225" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H225" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I225" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J225" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="K225" t="s">
-        <v>33</v>
-      </c>
-      <c r="L225" t="s">
-        <v>19</v>
-      </c>
-      <c r="M225" t="s">
-        <v>51</v>
-      </c>
-      <c r="N225" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q225" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S225" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19">
-      <c r="A227" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F227" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H227" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I227" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J227" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="K227" t="s">
-        <v>33</v>
-      </c>
-      <c r="L227" t="s">
-        <v>117</v>
-      </c>
-      <c r="M227" t="s">
-        <v>153</v>
-      </c>
-      <c r="N227" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q227" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S227" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19">
-      <c r="A229" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G229" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H229" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I229" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J229" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="K229" t="s">
-        <v>33</v>
-      </c>
-      <c r="L229" t="s">
-        <v>117</v>
-      </c>
-      <c r="M229" t="s">
-        <v>153</v>
-      </c>
-      <c r="N229" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q229" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S229" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19">
-      <c r="A231" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F231" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G231" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H231" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I231" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J231" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="K231" t="s">
-        <v>33</v>
-      </c>
-      <c r="L231" t="s">
-        <v>19</v>
-      </c>
-      <c r="M231" t="s">
-        <v>358</v>
-      </c>
-      <c r="N231" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q231" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S231" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19">
-      <c r="A233" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H233" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I233" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J233" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="K233" t="s">
-        <v>33</v>
-      </c>
-      <c r="L233" t="s">
-        <v>19</v>
-      </c>
-      <c r="M233" t="s">
-        <v>78</v>
-      </c>
-      <c r="N233" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q233" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S233" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19">
-      <c r="A235" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H235" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I235" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J235" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="K235" t="s">
-        <v>33</v>
-      </c>
-      <c r="L235" t="s">
-        <v>19</v>
-      </c>
-      <c r="M235" t="s">
-        <v>498</v>
-      </c>
-      <c r="N235" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q235" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S235" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19">
-      <c r="A237" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H237" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I237" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J237" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="K237" t="s">
-        <v>33</v>
-      </c>
-      <c r="L237" t="s">
-        <v>19</v>
-      </c>
-      <c r="M237" t="s">
-        <v>596</v>
-      </c>
-      <c r="N237" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q237" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S237" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19">
-      <c r="A239" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E239" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F239" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H239" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I239" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J239" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="K239" t="s">
-        <v>33</v>
-      </c>
-      <c r="L239" t="s">
-        <v>19</v>
-      </c>
-      <c r="M239" t="s">
-        <v>358</v>
-      </c>
-      <c r="N239" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q239" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S239" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19">
-      <c r="A241" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F241" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G241" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H241" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J241" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="K241" t="s">
-        <v>33</v>
-      </c>
-      <c r="L241" t="s">
-        <v>19</v>
-      </c>
-      <c r="M241" t="s">
-        <v>232</v>
-      </c>
-      <c r="N241" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q241" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S241" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19">
-      <c r="A243" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E243" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F243" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G243" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H243" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J243" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="K243" t="s">
-        <v>33</v>
-      </c>
-      <c r="L243" t="s">
-        <v>117</v>
-      </c>
-      <c r="M243" t="s">
-        <v>287</v>
-      </c>
-      <c r="N243" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q243" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S243" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19">
-      <c r="A245" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F245" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G245" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H245" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I245" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J245" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="K245" t="s">
-        <v>33</v>
-      </c>
-      <c r="L245" t="s">
-        <v>117</v>
-      </c>
-      <c r="M245" t="s">
-        <v>58</v>
-      </c>
-      <c r="N245" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q245" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S245" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19">
-      <c r="A247" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F247" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H247" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I247" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J247" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="K247" t="s">
-        <v>33</v>
-      </c>
-      <c r="L247" t="s">
-        <v>56</v>
-      </c>
-      <c r="N247" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q247" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S247" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19">
-      <c r="A249" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H249" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J249" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="K249" t="s">
-        <v>33</v>
-      </c>
-      <c r="L249" t="s">
-        <v>19</v>
-      </c>
-      <c r="M249" t="s">
-        <v>454</v>
-      </c>
-      <c r="N249" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q249" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="S249" s="10" t="s">
+      <c r="S246" s="10" t="s">
         <v>344</v>
       </c>
     </row>
@@ -12443,96 +12304,96 @@
     <hyperlink ref="B91" r:id="rId94"/>
     <hyperlink ref="A93" r:id="rId95"/>
     <hyperlink ref="B93" r:id="rId96"/>
-    <hyperlink ref="A94" r:id="rId97"/>
-    <hyperlink ref="B94" r:id="rId98"/>
-    <hyperlink ref="A96" r:id="rId99"/>
-    <hyperlink ref="B96" r:id="rId100"/>
-    <hyperlink ref="A98" r:id="rId101"/>
-    <hyperlink ref="B98" r:id="rId102"/>
-    <hyperlink ref="A100" r:id="rId103"/>
-    <hyperlink ref="B100" r:id="rId104"/>
-    <hyperlink ref="A102" r:id="rId105"/>
-    <hyperlink ref="B102" r:id="rId106"/>
-    <hyperlink ref="A104" r:id="rId107"/>
-    <hyperlink ref="B104" r:id="rId108"/>
-    <hyperlink ref="A106" r:id="rId109"/>
-    <hyperlink ref="B106" r:id="rId110"/>
-    <hyperlink ref="A108" r:id="rId111"/>
-    <hyperlink ref="B108" r:id="rId112"/>
-    <hyperlink ref="A110" r:id="rId113"/>
-    <hyperlink ref="B110" r:id="rId114"/>
-    <hyperlink ref="A112" r:id="rId115"/>
-    <hyperlink ref="B112" r:id="rId116"/>
-    <hyperlink ref="A114" r:id="rId117"/>
-    <hyperlink ref="B114" r:id="rId118"/>
-    <hyperlink ref="A116" r:id="rId119"/>
-    <hyperlink ref="B116" r:id="rId120"/>
-    <hyperlink ref="A118" r:id="rId121"/>
-    <hyperlink ref="B118" r:id="rId122"/>
-    <hyperlink ref="A120" r:id="rId123"/>
-    <hyperlink ref="B120" r:id="rId124"/>
-    <hyperlink ref="A122" r:id="rId125"/>
-    <hyperlink ref="B122" r:id="rId126"/>
-    <hyperlink ref="A124" r:id="rId127"/>
-    <hyperlink ref="B124" r:id="rId128"/>
-    <hyperlink ref="A126" r:id="rId129"/>
-    <hyperlink ref="B126" r:id="rId130"/>
-    <hyperlink ref="A128" r:id="rId131"/>
-    <hyperlink ref="B128" r:id="rId132"/>
-    <hyperlink ref="A130" r:id="rId133"/>
-    <hyperlink ref="B130" r:id="rId134"/>
-    <hyperlink ref="A132" r:id="rId135"/>
-    <hyperlink ref="B132" r:id="rId136"/>
-    <hyperlink ref="A134" r:id="rId137"/>
-    <hyperlink ref="B134" r:id="rId138"/>
-    <hyperlink ref="A136" r:id="rId139"/>
-    <hyperlink ref="B136" r:id="rId140"/>
-    <hyperlink ref="A138" r:id="rId141"/>
-    <hyperlink ref="B138" r:id="rId142"/>
-    <hyperlink ref="A140" r:id="rId143"/>
-    <hyperlink ref="B140" r:id="rId144"/>
-    <hyperlink ref="A142" r:id="rId145"/>
-    <hyperlink ref="B142" r:id="rId146"/>
-    <hyperlink ref="A144" r:id="rId147"/>
-    <hyperlink ref="B144" r:id="rId148"/>
-    <hyperlink ref="A146" r:id="rId149"/>
-    <hyperlink ref="B146" r:id="rId150"/>
-    <hyperlink ref="A148" r:id="rId151"/>
-    <hyperlink ref="B148" r:id="rId152"/>
-    <hyperlink ref="A150" r:id="rId153"/>
-    <hyperlink ref="B150" r:id="rId154"/>
+    <hyperlink ref="A95" r:id="rId97"/>
+    <hyperlink ref="B95" r:id="rId98"/>
+    <hyperlink ref="A97" r:id="rId99"/>
+    <hyperlink ref="B97" r:id="rId100"/>
+    <hyperlink ref="A99" r:id="rId101"/>
+    <hyperlink ref="B99" r:id="rId102"/>
+    <hyperlink ref="A101" r:id="rId103"/>
+    <hyperlink ref="B101" r:id="rId104"/>
+    <hyperlink ref="A103" r:id="rId105"/>
+    <hyperlink ref="B103" r:id="rId106"/>
+    <hyperlink ref="A105" r:id="rId107"/>
+    <hyperlink ref="B105" r:id="rId108"/>
+    <hyperlink ref="A107" r:id="rId109"/>
+    <hyperlink ref="B107" r:id="rId110"/>
+    <hyperlink ref="A109" r:id="rId111"/>
+    <hyperlink ref="B109" r:id="rId112"/>
+    <hyperlink ref="A111" r:id="rId113"/>
+    <hyperlink ref="B111" r:id="rId114"/>
+    <hyperlink ref="A113" r:id="rId115"/>
+    <hyperlink ref="B113" r:id="rId116"/>
+    <hyperlink ref="A115" r:id="rId117"/>
+    <hyperlink ref="B115" r:id="rId118"/>
+    <hyperlink ref="A117" r:id="rId119"/>
+    <hyperlink ref="B117" r:id="rId120"/>
+    <hyperlink ref="A119" r:id="rId121"/>
+    <hyperlink ref="B119" r:id="rId122"/>
+    <hyperlink ref="A121" r:id="rId123"/>
+    <hyperlink ref="B121" r:id="rId124"/>
+    <hyperlink ref="A123" r:id="rId125"/>
+    <hyperlink ref="B123" r:id="rId126"/>
+    <hyperlink ref="A125" r:id="rId127"/>
+    <hyperlink ref="B125" r:id="rId128"/>
+    <hyperlink ref="A127" r:id="rId129"/>
+    <hyperlink ref="B127" r:id="rId130"/>
+    <hyperlink ref="A129" r:id="rId131"/>
+    <hyperlink ref="B129" r:id="rId132"/>
+    <hyperlink ref="A131" r:id="rId133"/>
+    <hyperlink ref="B131" r:id="rId134"/>
+    <hyperlink ref="A133" r:id="rId135"/>
+    <hyperlink ref="B133" r:id="rId136"/>
+    <hyperlink ref="A135" r:id="rId137"/>
+    <hyperlink ref="B135" r:id="rId138"/>
+    <hyperlink ref="A137" r:id="rId139"/>
+    <hyperlink ref="B137" r:id="rId140"/>
+    <hyperlink ref="A139" r:id="rId141"/>
+    <hyperlink ref="B139" r:id="rId142"/>
+    <hyperlink ref="A141" r:id="rId143"/>
+    <hyperlink ref="B141" r:id="rId144"/>
+    <hyperlink ref="A143" r:id="rId145"/>
+    <hyperlink ref="B143" r:id="rId146"/>
+    <hyperlink ref="A145" r:id="rId147"/>
+    <hyperlink ref="B145" r:id="rId148"/>
+    <hyperlink ref="A147" r:id="rId149"/>
+    <hyperlink ref="B147" r:id="rId150"/>
+    <hyperlink ref="A149" r:id="rId151"/>
+    <hyperlink ref="B149" r:id="rId152"/>
+    <hyperlink ref="A151" r:id="rId153"/>
+    <hyperlink ref="B151" r:id="rId154"/>
     <hyperlink ref="A152" r:id="rId155"/>
     <hyperlink ref="B152" r:id="rId156"/>
     <hyperlink ref="A154" r:id="rId157"/>
     <hyperlink ref="B154" r:id="rId158"/>
-    <hyperlink ref="A155" r:id="rId159"/>
-    <hyperlink ref="B155" r:id="rId160"/>
-    <hyperlink ref="A157" r:id="rId161"/>
-    <hyperlink ref="B157" r:id="rId162"/>
-    <hyperlink ref="A159" r:id="rId163"/>
-    <hyperlink ref="B159" r:id="rId164"/>
-    <hyperlink ref="A161" r:id="rId165"/>
-    <hyperlink ref="B161" r:id="rId166"/>
+    <hyperlink ref="A156" r:id="rId159"/>
+    <hyperlink ref="B156" r:id="rId160"/>
+    <hyperlink ref="A158" r:id="rId161"/>
+    <hyperlink ref="B158" r:id="rId162"/>
+    <hyperlink ref="A160" r:id="rId163"/>
+    <hyperlink ref="B160" r:id="rId164"/>
+    <hyperlink ref="A162" r:id="rId165"/>
+    <hyperlink ref="B162" r:id="rId166"/>
     <hyperlink ref="A163" r:id="rId167"/>
     <hyperlink ref="B163" r:id="rId168"/>
     <hyperlink ref="A165" r:id="rId169"/>
     <hyperlink ref="B165" r:id="rId170"/>
-    <hyperlink ref="A166" r:id="rId171"/>
-    <hyperlink ref="B166" r:id="rId172"/>
-    <hyperlink ref="A168" r:id="rId173"/>
-    <hyperlink ref="B168" r:id="rId174"/>
-    <hyperlink ref="A170" r:id="rId175"/>
-    <hyperlink ref="B170" r:id="rId176"/>
-    <hyperlink ref="A172" r:id="rId177"/>
-    <hyperlink ref="B172" r:id="rId178"/>
-    <hyperlink ref="A174" r:id="rId179"/>
-    <hyperlink ref="B174" r:id="rId180"/>
-    <hyperlink ref="A176" r:id="rId181"/>
-    <hyperlink ref="B176" r:id="rId182"/>
-    <hyperlink ref="A178" r:id="rId183"/>
-    <hyperlink ref="B178" r:id="rId184"/>
-    <hyperlink ref="A180" r:id="rId185"/>
-    <hyperlink ref="B180" r:id="rId186"/>
+    <hyperlink ref="A167" r:id="rId171"/>
+    <hyperlink ref="B167" r:id="rId172"/>
+    <hyperlink ref="A169" r:id="rId173"/>
+    <hyperlink ref="B169" r:id="rId174"/>
+    <hyperlink ref="A171" r:id="rId175"/>
+    <hyperlink ref="B171" r:id="rId176"/>
+    <hyperlink ref="A173" r:id="rId177"/>
+    <hyperlink ref="B173" r:id="rId178"/>
+    <hyperlink ref="A175" r:id="rId179"/>
+    <hyperlink ref="B175" r:id="rId180"/>
+    <hyperlink ref="A177" r:id="rId181"/>
+    <hyperlink ref="B177" r:id="rId182"/>
+    <hyperlink ref="A179" r:id="rId183"/>
+    <hyperlink ref="B179" r:id="rId184"/>
+    <hyperlink ref="A181" r:id="rId185"/>
+    <hyperlink ref="B181" r:id="rId186"/>
     <hyperlink ref="A182" r:id="rId187"/>
     <hyperlink ref="B182" r:id="rId188"/>
     <hyperlink ref="A184" r:id="rId189"/>
@@ -12541,70 +12402,66 @@
     <hyperlink ref="B185" r:id="rId192"/>
     <hyperlink ref="A187" r:id="rId193"/>
     <hyperlink ref="B187" r:id="rId194"/>
-    <hyperlink ref="A188" r:id="rId195"/>
-    <hyperlink ref="B188" r:id="rId196"/>
-    <hyperlink ref="A190" r:id="rId197"/>
-    <hyperlink ref="B190" r:id="rId198"/>
-    <hyperlink ref="A192" r:id="rId199"/>
-    <hyperlink ref="B192" r:id="rId200"/>
-    <hyperlink ref="A194" r:id="rId201"/>
-    <hyperlink ref="B194" r:id="rId202"/>
-    <hyperlink ref="A196" r:id="rId203"/>
-    <hyperlink ref="B196" r:id="rId204"/>
-    <hyperlink ref="A198" r:id="rId205"/>
-    <hyperlink ref="B198" r:id="rId206"/>
-    <hyperlink ref="A200" r:id="rId207"/>
-    <hyperlink ref="B200" r:id="rId208"/>
-    <hyperlink ref="A202" r:id="rId209"/>
-    <hyperlink ref="B202" r:id="rId210"/>
-    <hyperlink ref="A204" r:id="rId211"/>
-    <hyperlink ref="B204" r:id="rId212"/>
-    <hyperlink ref="A206" r:id="rId213"/>
-    <hyperlink ref="B206" r:id="rId214"/>
+    <hyperlink ref="A189" r:id="rId195"/>
+    <hyperlink ref="B189" r:id="rId196"/>
+    <hyperlink ref="A191" r:id="rId197"/>
+    <hyperlink ref="B191" r:id="rId198"/>
+    <hyperlink ref="A193" r:id="rId199"/>
+    <hyperlink ref="B193" r:id="rId200"/>
+    <hyperlink ref="A195" r:id="rId201"/>
+    <hyperlink ref="B195" r:id="rId202"/>
+    <hyperlink ref="A197" r:id="rId203"/>
+    <hyperlink ref="B197" r:id="rId204"/>
+    <hyperlink ref="A199" r:id="rId205"/>
+    <hyperlink ref="B199" r:id="rId206"/>
+    <hyperlink ref="A201" r:id="rId207"/>
+    <hyperlink ref="B201" r:id="rId208"/>
+    <hyperlink ref="A203" r:id="rId209"/>
+    <hyperlink ref="B203" r:id="rId210"/>
+    <hyperlink ref="A205" r:id="rId211"/>
+    <hyperlink ref="B205" r:id="rId212"/>
+    <hyperlink ref="A207" r:id="rId213"/>
+    <hyperlink ref="B207" r:id="rId214"/>
     <hyperlink ref="A208" r:id="rId215"/>
     <hyperlink ref="B208" r:id="rId216"/>
     <hyperlink ref="A210" r:id="rId217"/>
     <hyperlink ref="B210" r:id="rId218"/>
-    <hyperlink ref="A211" r:id="rId219"/>
-    <hyperlink ref="B211" r:id="rId220"/>
-    <hyperlink ref="A213" r:id="rId221"/>
-    <hyperlink ref="B213" r:id="rId222"/>
-    <hyperlink ref="A215" r:id="rId223"/>
-    <hyperlink ref="B215" r:id="rId224"/>
-    <hyperlink ref="A217" r:id="rId225"/>
-    <hyperlink ref="B217" r:id="rId226"/>
-    <hyperlink ref="A219" r:id="rId227"/>
-    <hyperlink ref="B219" r:id="rId228"/>
-    <hyperlink ref="A221" r:id="rId229"/>
-    <hyperlink ref="B221" r:id="rId230"/>
-    <hyperlink ref="A223" r:id="rId231"/>
-    <hyperlink ref="B223" r:id="rId232"/>
-    <hyperlink ref="A225" r:id="rId233"/>
-    <hyperlink ref="B225" r:id="rId234"/>
-    <hyperlink ref="A227" r:id="rId235"/>
-    <hyperlink ref="B227" r:id="rId236"/>
-    <hyperlink ref="A229" r:id="rId237"/>
-    <hyperlink ref="B229" r:id="rId238"/>
-    <hyperlink ref="A231" r:id="rId239"/>
-    <hyperlink ref="B231" r:id="rId240"/>
-    <hyperlink ref="A233" r:id="rId241"/>
-    <hyperlink ref="B233" r:id="rId242"/>
-    <hyperlink ref="A235" r:id="rId243"/>
-    <hyperlink ref="B235" r:id="rId244"/>
-    <hyperlink ref="A237" r:id="rId245"/>
-    <hyperlink ref="B237" r:id="rId246"/>
-    <hyperlink ref="A239" r:id="rId247"/>
-    <hyperlink ref="B239" r:id="rId248"/>
-    <hyperlink ref="A241" r:id="rId249"/>
-    <hyperlink ref="B241" r:id="rId250"/>
-    <hyperlink ref="A243" r:id="rId251"/>
-    <hyperlink ref="B243" r:id="rId252"/>
-    <hyperlink ref="A245" r:id="rId253"/>
-    <hyperlink ref="B245" r:id="rId254"/>
-    <hyperlink ref="A247" r:id="rId255"/>
-    <hyperlink ref="B247" r:id="rId256"/>
-    <hyperlink ref="A249" r:id="rId257"/>
-    <hyperlink ref="B249" r:id="rId258"/>
+    <hyperlink ref="A212" r:id="rId219"/>
+    <hyperlink ref="B212" r:id="rId220"/>
+    <hyperlink ref="A214" r:id="rId221"/>
+    <hyperlink ref="B214" r:id="rId222"/>
+    <hyperlink ref="A216" r:id="rId223"/>
+    <hyperlink ref="B216" r:id="rId224"/>
+    <hyperlink ref="A218" r:id="rId225"/>
+    <hyperlink ref="B218" r:id="rId226"/>
+    <hyperlink ref="A220" r:id="rId227"/>
+    <hyperlink ref="B220" r:id="rId228"/>
+    <hyperlink ref="A222" r:id="rId229"/>
+    <hyperlink ref="B222" r:id="rId230"/>
+    <hyperlink ref="A224" r:id="rId231"/>
+    <hyperlink ref="B224" r:id="rId232"/>
+    <hyperlink ref="A226" r:id="rId233"/>
+    <hyperlink ref="B226" r:id="rId234"/>
+    <hyperlink ref="A228" r:id="rId235"/>
+    <hyperlink ref="B228" r:id="rId236"/>
+    <hyperlink ref="A230" r:id="rId237"/>
+    <hyperlink ref="B230" r:id="rId238"/>
+    <hyperlink ref="A232" r:id="rId239"/>
+    <hyperlink ref="B232" r:id="rId240"/>
+    <hyperlink ref="A234" r:id="rId241"/>
+    <hyperlink ref="B234" r:id="rId242"/>
+    <hyperlink ref="A236" r:id="rId243"/>
+    <hyperlink ref="B236" r:id="rId244"/>
+    <hyperlink ref="A238" r:id="rId245"/>
+    <hyperlink ref="B238" r:id="rId246"/>
+    <hyperlink ref="A240" r:id="rId247"/>
+    <hyperlink ref="B240" r:id="rId248"/>
+    <hyperlink ref="A242" r:id="rId249"/>
+    <hyperlink ref="B242" r:id="rId250"/>
+    <hyperlink ref="A244" r:id="rId251"/>
+    <hyperlink ref="B244" r:id="rId252"/>
+    <hyperlink ref="A246" r:id="rId253"/>
+    <hyperlink ref="B246" r:id="rId254"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12685,7 +12542,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>364</v>
@@ -12709,13 +12566,13 @@
         <v>342</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="K2" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -12729,7 +12586,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>382</v>
@@ -12753,13 +12610,13 @@
         <v>342</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K4" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -12773,7 +12630,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>393</v>
@@ -12797,13 +12654,13 @@
         <v>342</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="K6" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -12817,7 +12674,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>408</v>
@@ -12841,13 +12698,13 @@
         <v>342</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K8" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -12861,7 +12718,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>420</v>
@@ -12885,13 +12742,13 @@
         <v>342</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K10" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -12905,7 +12762,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>424</v>
@@ -12929,13 +12786,13 @@
         <v>342</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K12" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L12" t="s">
         <v>117</v>
@@ -12949,7 +12806,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>433</v>
@@ -12973,13 +12830,13 @@
         <v>342</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K14" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -12993,7 +12850,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>465</v>
@@ -13017,13 +12874,13 @@
         <v>342</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K16" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
@@ -13037,7 +12894,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>462</v>
@@ -13061,13 +12918,13 @@
         <v>342</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K18" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -13081,7 +12938,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>476</v>
@@ -13105,13 +12962,13 @@
         <v>342</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K20" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
@@ -13125,16 +12982,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>341</v>
@@ -13149,19 +13006,19 @@
         <v>342</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K22" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="N22" t="s">
         <v>28</v>
@@ -13169,16 +13026,16 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>341</v>
@@ -13193,19 +13050,19 @@
         <v>342</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K24" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="N24" t="s">
         <v>28</v>
@@ -13213,10 +13070,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -13237,13 +13094,13 @@
         <v>342</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K26" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -13257,16 +13114,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>341</v>
@@ -13281,13 +13138,13 @@
         <v>342</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K28" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
@@ -13301,16 +13158,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>341</v>
@@ -13325,13 +13182,13 @@
         <v>342</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K30" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L30" t="s">
         <v>117</v>
@@ -13345,16 +13202,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>341</v>
@@ -13369,19 +13226,19 @@
         <v>342</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K32" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="N32" t="s">
         <v>21</v>
@@ -13389,10 +13246,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>125</v>
@@ -13413,13 +13270,13 @@
         <v>342</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="K34" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L34" t="s">
         <v>117</v>
@@ -13433,10 +13290,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>108</v>
@@ -13457,13 +13314,13 @@
         <v>342</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="K36" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -13477,10 +13334,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>290</v>
@@ -13501,13 +13358,13 @@
         <v>342</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K38" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L38" t="s">
         <v>117</v>
@@ -13521,16 +13378,16 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="7" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>341</v>
@@ -13545,19 +13402,19 @@
         <v>342</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K40" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L40" t="s">
         <v>56</v>
       </c>
       <c r="M40" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="N40" t="s">
         <v>28</v>
@@ -13568,16 +13425,16 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>341</v>
@@ -13592,25 +13449,25 @@
         <v>342</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K42" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L42" t="s">
         <v>56</v>
       </c>
       <c r="M42" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="N42" t="s">
         <v>28</v>
       </c>
       <c r="O42" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="P42" t="s">
         <v>57</v>
@@ -13618,16 +13475,16 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="7" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>341</v>
@@ -13642,13 +13499,13 @@
         <v>342</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K44" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L44" t="s">
         <v>19</v>
@@ -13662,16 +13519,16 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="7" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>341</v>
@@ -13686,13 +13543,13 @@
         <v>342</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K46" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L46" t="s">
         <v>19</v>
@@ -13706,16 +13563,16 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="7" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>341</v>
@@ -13730,13 +13587,13 @@
         <v>342</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K48" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L48" t="s">
         <v>19</v>
@@ -13750,16 +13607,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>341</v>
@@ -13774,13 +13631,13 @@
         <v>342</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K50" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L50" t="s">
         <v>19</v>
@@ -13794,16 +13651,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>341</v>
@@ -13818,13 +13675,13 @@
         <v>342</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K52" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L52" t="s">
         <v>19</v>
@@ -13970,10 +13827,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>129</v>
@@ -13994,10 +13851,10 @@
         <v>342</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="K2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="L2" t="s">
         <v>241</v>

--- a/excel_reports/Latesa_Pasley.xlsx
+++ b/excel_reports/Latesa_Pasley.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="661">
   <si>
     <t>Policy Record</t>
   </si>
@@ -331,6 +331,27 @@
     <t>Brock</t>
   </si>
   <si>
+    <t>4224177031</t>
+  </si>
+  <si>
+    <t>25082201</t>
+  </si>
+  <si>
+    <t>Michael J</t>
+  </si>
+  <si>
+    <t>Cadle</t>
+  </si>
+  <si>
+    <t>MUTUAL OF OMAHA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
     <t>3173259316</t>
   </si>
   <si>
@@ -403,381 +424,393 @@
     <t>Dettrey</t>
   </si>
   <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>11-18-2022</t>
+  </si>
+  <si>
+    <t>Declined in UW</t>
+  </si>
+  <si>
+    <t>3813310521</t>
+  </si>
+  <si>
+    <t>24210901</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Dibs</t>
+  </si>
+  <si>
+    <t>3756258186</t>
+  </si>
+  <si>
+    <t>24167101</t>
+  </si>
+  <si>
+    <t>Jeannette</t>
+  </si>
+  <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>3385971078</t>
+  </si>
+  <si>
+    <t>23163901</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Dugas</t>
+  </si>
+  <si>
+    <t>10-20-2022</t>
+  </si>
+  <si>
+    <t>3173177947</t>
+  </si>
+  <si>
+    <t>22751401</t>
+  </si>
+  <si>
+    <t>Corey</t>
+  </si>
+  <si>
+    <t>Eisenberg</t>
+  </si>
+  <si>
+    <t>10-03-2022</t>
+  </si>
+  <si>
+    <t>3173259321</t>
+  </si>
+  <si>
+    <t>22466351</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Eskie</t>
+  </si>
+  <si>
+    <t>11-03-2022</t>
+  </si>
+  <si>
+    <t>04-01-2023</t>
+  </si>
+  <si>
+    <t>3948611720</t>
+  </si>
+  <si>
+    <t>24612151</t>
+  </si>
+  <si>
+    <t>Ivette C</t>
+  </si>
+  <si>
+    <t>Etcheverry</t>
+  </si>
+  <si>
+    <t>3718517535</t>
+  </si>
+  <si>
+    <t>24087301</t>
+  </si>
+  <si>
+    <t>Terri</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>4045960746</t>
+  </si>
+  <si>
+    <t>24828301</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Gaitan</t>
+  </si>
+  <si>
+    <t>4070621283</t>
+  </si>
+  <si>
+    <t>25035851</t>
+  </si>
+  <si>
+    <t>Landa N</t>
+  </si>
+  <si>
+    <t>Gee</t>
+  </si>
+  <si>
+    <t>11-23-2022</t>
+  </si>
+  <si>
+    <t>4195900709</t>
+  </si>
+  <si>
+    <t>24892151</t>
+  </si>
+  <si>
+    <t>Gilmore</t>
+  </si>
+  <si>
+    <t>3173259187</t>
+  </si>
+  <si>
+    <t>22517201</t>
+  </si>
+  <si>
+    <t>Anthony M</t>
+  </si>
+  <si>
+    <t>Gorruso</t>
+  </si>
+  <si>
+    <t>09-28-2022</t>
+  </si>
+  <si>
+    <t>3173259270</t>
+  </si>
+  <si>
+    <t>22683101</t>
+  </si>
+  <si>
+    <t>Sondra</t>
+  </si>
+  <si>
+    <t>Greenwell</t>
+  </si>
+  <si>
+    <t>09-27-2022</t>
+  </si>
+  <si>
+    <t>3952853275</t>
+  </si>
+  <si>
+    <t>24680651</t>
+  </si>
+  <si>
+    <t>Mohsen</t>
+  </si>
+  <si>
+    <t>Habib</t>
+  </si>
+  <si>
+    <t>3952941686</t>
+  </si>
+  <si>
+    <t>24805501</t>
+  </si>
+  <si>
+    <t>Marcelle</t>
+  </si>
+  <si>
+    <t>3173243402</t>
+  </si>
+  <si>
+    <t>23092551</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>10-10-2022</t>
+  </si>
+  <si>
+    <t>4045573290</t>
+  </si>
+  <si>
+    <t>24741101</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>340 - Pending</t>
+  </si>
+  <si>
+    <t>Not Commissionable</t>
+  </si>
+  <si>
+    <t>3484940374</t>
+  </si>
+  <si>
+    <t>23532101</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>10-25-2022</t>
+  </si>
+  <si>
+    <t>3702983560</t>
+  </si>
+  <si>
+    <t>23366351</t>
+  </si>
+  <si>
+    <t>James A</t>
+  </si>
+  <si>
+    <t>Hill III</t>
+  </si>
+  <si>
+    <t>11-04-2022</t>
+  </si>
+  <si>
+    <t>3621709394</t>
+  </si>
+  <si>
+    <t>23665401</t>
+  </si>
+  <si>
+    <t>Brenda S</t>
+  </si>
+  <si>
+    <t>Hoffacker</t>
+  </si>
+  <si>
+    <t>3912022912</t>
+  </si>
+  <si>
+    <t>21893601</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>11-15-2022</t>
+  </si>
+  <si>
+    <t>3333696916</t>
+  </si>
+  <si>
+    <t>23301401</t>
+  </si>
+  <si>
+    <t>Howsare</t>
+  </si>
+  <si>
+    <t>3333696932</t>
+  </si>
+  <si>
+    <t>23534601</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>4194710121</t>
+  </si>
+  <si>
+    <t>25156801</t>
+  </si>
+  <si>
+    <t>Robert M.</t>
+  </si>
+  <si>
+    <t>Jennings</t>
+  </si>
+  <si>
+    <t>330 - Pending</t>
+  </si>
+  <si>
+    <t>4192700026</t>
+  </si>
+  <si>
+    <t>420 - Cancelled</t>
+  </si>
+  <si>
+    <t>3173177954</t>
+  </si>
+  <si>
+    <t>22934201</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>10-05-2022</t>
+  </si>
+  <si>
+    <t>3754836561</t>
+  </si>
+  <si>
+    <t>24212151</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>3635643702</t>
+  </si>
+  <si>
+    <t>23659301</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Ketchie</t>
+  </si>
+  <si>
+    <t>4023359580</t>
+  </si>
+  <si>
+    <t>24937251</t>
+  </si>
+  <si>
+    <t>Melvin E</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>4025372498</t>
+  </si>
+  <si>
+    <t>24938351</t>
+  </si>
+  <si>
+    <t>Karen S</t>
+  </si>
+  <si>
     <t>450 - Cancelled</t>
   </si>
   <si>
-    <t>11-18-2022</t>
-  </si>
-  <si>
-    <t>Declined in UW</t>
-  </si>
-  <si>
-    <t>3813310521</t>
-  </si>
-  <si>
-    <t>24210901</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Dibs</t>
-  </si>
-  <si>
-    <t>3756258186</t>
-  </si>
-  <si>
-    <t>24167101</t>
-  </si>
-  <si>
-    <t>Jeannette</t>
-  </si>
-  <si>
-    <t>Doyle</t>
-  </si>
-  <si>
-    <t>11-07-2022</t>
-  </si>
-  <si>
-    <t>3385971078</t>
-  </si>
-  <si>
-    <t>23163901</t>
-  </si>
-  <si>
-    <t>Kenneth</t>
-  </si>
-  <si>
-    <t>Dugas</t>
-  </si>
-  <si>
-    <t>10-20-2022</t>
-  </si>
-  <si>
-    <t>3173177947</t>
-  </si>
-  <si>
-    <t>22751401</t>
-  </si>
-  <si>
-    <t>Corey</t>
-  </si>
-  <si>
-    <t>Eisenberg</t>
-  </si>
-  <si>
-    <t>10-03-2022</t>
-  </si>
-  <si>
-    <t>3173259321</t>
-  </si>
-  <si>
-    <t>22466351</t>
-  </si>
-  <si>
-    <t>Debra</t>
-  </si>
-  <si>
-    <t>Eskie</t>
-  </si>
-  <si>
-    <t>11-03-2022</t>
-  </si>
-  <si>
-    <t>04-01-2023</t>
-  </si>
-  <si>
-    <t>3948611720</t>
-  </si>
-  <si>
-    <t>24612151</t>
-  </si>
-  <si>
-    <t>Ivette C</t>
-  </si>
-  <si>
-    <t>Etcheverry</t>
-  </si>
-  <si>
-    <t>3718517535</t>
-  </si>
-  <si>
-    <t>24087301</t>
-  </si>
-  <si>
-    <t>Terri</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>4045960746</t>
-  </si>
-  <si>
-    <t>24828301</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Gaitan</t>
-  </si>
-  <si>
-    <t>4070621283</t>
-  </si>
-  <si>
-    <t>25035851</t>
-  </si>
-  <si>
-    <t>Landa N</t>
-  </si>
-  <si>
-    <t>Gee</t>
-  </si>
-  <si>
-    <t>11-23-2022</t>
-  </si>
-  <si>
-    <t>3173259187</t>
-  </si>
-  <si>
-    <t>22517201</t>
-  </si>
-  <si>
-    <t>Anthony M</t>
-  </si>
-  <si>
-    <t>Gorruso</t>
-  </si>
-  <si>
-    <t>09-28-2022</t>
-  </si>
-  <si>
-    <t>3173259270</t>
-  </si>
-  <si>
-    <t>22683101</t>
-  </si>
-  <si>
-    <t>Sondra</t>
-  </si>
-  <si>
-    <t>Greenwell</t>
-  </si>
-  <si>
-    <t>09-27-2022</t>
-  </si>
-  <si>
-    <t>3952853275</t>
-  </si>
-  <si>
-    <t>24680651</t>
-  </si>
-  <si>
-    <t>Mohsen</t>
-  </si>
-  <si>
-    <t>Habib</t>
-  </si>
-  <si>
-    <t>3952941686</t>
-  </si>
-  <si>
-    <t>24805501</t>
-  </si>
-  <si>
-    <t>Marcelle</t>
-  </si>
-  <si>
-    <t>3173243402</t>
-  </si>
-  <si>
-    <t>23092551</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>10-10-2022</t>
-  </si>
-  <si>
-    <t>4045573290</t>
-  </si>
-  <si>
-    <t>24741101</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Helm</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>340 - Pending</t>
-  </si>
-  <si>
-    <t>Not Commissionable</t>
-  </si>
-  <si>
-    <t>3484940374</t>
-  </si>
-  <si>
-    <t>23532101</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Henderson</t>
-  </si>
-  <si>
-    <t>10-25-2022</t>
-  </si>
-  <si>
-    <t>3702983560</t>
-  </si>
-  <si>
-    <t>23366351</t>
-  </si>
-  <si>
-    <t>James A</t>
-  </si>
-  <si>
-    <t>Hill III</t>
-  </si>
-  <si>
-    <t>11-04-2022</t>
-  </si>
-  <si>
-    <t>3621709394</t>
-  </si>
-  <si>
-    <t>23665401</t>
-  </si>
-  <si>
-    <t>Brenda S</t>
-  </si>
-  <si>
-    <t>Hoffacker</t>
-  </si>
-  <si>
-    <t>3912022912</t>
-  </si>
-  <si>
-    <t>21893601</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>11-15-2022</t>
-  </si>
-  <si>
-    <t>3333696916</t>
-  </si>
-  <si>
-    <t>23301401</t>
-  </si>
-  <si>
-    <t>Howsare</t>
-  </si>
-  <si>
-    <t>3333696932</t>
-  </si>
-  <si>
-    <t>23534601</t>
-  </si>
-  <si>
-    <t>Kirk</t>
-  </si>
-  <si>
-    <t>4194710121</t>
-  </si>
-  <si>
-    <t>25156801</t>
-  </si>
-  <si>
-    <t>Robert M.</t>
-  </si>
-  <si>
-    <t>Jennings</t>
-  </si>
-  <si>
-    <t>330 - Pending</t>
-  </si>
-  <si>
-    <t>4192700026</t>
-  </si>
-  <si>
-    <t>420 - Cancelled</t>
-  </si>
-  <si>
-    <t>3173177954</t>
-  </si>
-  <si>
-    <t>22934201</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>10-05-2022</t>
-  </si>
-  <si>
-    <t>3754836561</t>
-  </si>
-  <si>
-    <t>24212151</t>
-  </si>
-  <si>
-    <t>Rex</t>
-  </si>
-  <si>
-    <t>Johnston</t>
-  </si>
-  <si>
-    <t>3635643702</t>
-  </si>
-  <si>
-    <t>23659301</t>
-  </si>
-  <si>
-    <t>Carolyn</t>
-  </si>
-  <si>
-    <t>Ketchie</t>
-  </si>
-  <si>
-    <t>4023359580</t>
-  </si>
-  <si>
-    <t>24937251</t>
-  </si>
-  <si>
-    <t>Melvin E</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>4025372498</t>
-  </si>
-  <si>
-    <t>24938351</t>
-  </si>
-  <si>
-    <t>Karen S</t>
-  </si>
-  <si>
     <t>3522477969</t>
   </si>
   <si>
@@ -895,9 +928,6 @@
     <t>Mermer</t>
   </si>
   <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
     <t>11-08-2022</t>
   </si>
   <si>
@@ -1399,33 +1429,6 @@
     <t xml:space="preserve">Humana USAA Honor with Rx (PPO) </t>
   </si>
   <si>
-    <t>3167055753</t>
-  </si>
-  <si>
-    <t>5526601</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Boyer-Curtis</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Duffey</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice (PPO)</t>
-  </si>
-  <si>
-    <t>04-28-2022</t>
-  </si>
-  <si>
-    <t>06-01-2022</t>
-  </si>
-  <si>
     <t>3719704103</t>
   </si>
   <si>
@@ -1637,9 +1640,6 @@
   </si>
   <si>
     <t>24681601</t>
-  </si>
-  <si>
-    <t>Michael J</t>
   </si>
   <si>
     <t>Morgan</t>
@@ -2422,7 +2422,7 @@
         <v>633</v>
       </c>
       <c r="B3" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2624,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W246"/>
+  <dimension ref="A1:W248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3446,25 +3446,25 @@
         <v>28</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="N28" t="s">
         <v>34</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S28" s="7" t="s">
         <v>35</v>
@@ -3472,16 +3472,16 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -3496,7 +3496,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>30</v>
@@ -3508,10 +3508,10 @@
         <v>47</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>50</v>
@@ -3522,16 +3522,16 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -3546,7 +3546,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>30</v>
@@ -3558,10 +3558,10 @@
         <v>47</v>
       </c>
       <c r="M32" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="N32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>50</v>
@@ -3572,16 +3572,16 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -3596,7 +3596,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>30</v>
@@ -3608,10 +3608,10 @@
         <v>47</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>50</v>
@@ -3622,16 +3622,16 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>27</v>
@@ -3646,7 +3646,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>30</v>
@@ -3655,19 +3655,16 @@
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="M36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
         <v>34</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="S36" s="7" t="s">
         <v>35</v>
@@ -3699,7 +3696,7 @@
         <v>28</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>30</v>
@@ -3708,16 +3705,22 @@
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="N38" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>136</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="S38" s="7" t="s">
         <v>35</v>
@@ -3725,16 +3728,16 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -3749,7 +3752,7 @@
         <v>28</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>30</v>
@@ -3761,10 +3764,10 @@
         <v>47</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>50</v>
@@ -3775,16 +3778,16 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -3811,10 +3814,10 @@
         <v>47</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N42" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>50</v>
@@ -3825,16 +3828,16 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>27</v>
@@ -3849,7 +3852,7 @@
         <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>30</v>
@@ -3861,10 +3864,10 @@
         <v>47</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N44" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>50</v>
@@ -3875,16 +3878,16 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>27</v>
@@ -3911,10 +3914,10 @@
         <v>47</v>
       </c>
       <c r="M46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N46" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>50</v>
@@ -3925,16 +3928,16 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>27</v>
@@ -3961,10 +3964,10 @@
         <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="N48" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>50</v>
@@ -3975,16 +3978,16 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>27</v>
@@ -4011,10 +4014,10 @@
         <v>47</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>50</v>
@@ -4025,16 +4028,16 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>27</v>
@@ -4061,10 +4064,10 @@
         <v>47</v>
       </c>
       <c r="M52" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="N52" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>50</v>
@@ -4075,16 +4078,16 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>27</v>
@@ -4111,7 +4114,7 @@
         <v>47</v>
       </c>
       <c r="M54" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="N54" t="s">
         <v>34</v>
@@ -4125,16 +4128,16 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>27</v>
@@ -4161,10 +4164,10 @@
         <v>47</v>
       </c>
       <c r="M56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N56" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>50</v>
@@ -4175,16 +4178,16 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>27</v>
@@ -4199,7 +4202,7 @@
         <v>28</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>30</v>
@@ -4208,16 +4211,16 @@
         <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M58" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="N58" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S58" s="7" t="s">
         <v>35</v>
@@ -4261,10 +4264,10 @@
         <v>47</v>
       </c>
       <c r="M60" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="N60" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="Q60" s="6" t="s">
         <v>50</v>
@@ -4275,16 +4278,16 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>27</v>
@@ -4311,10 +4314,10 @@
         <v>47</v>
       </c>
       <c r="M62" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="N62" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="6" t="s">
         <v>50</v>
@@ -4325,16 +4328,16 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>27</v>
@@ -4349,7 +4352,7 @@
         <v>28</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>30</v>
@@ -4361,7 +4364,7 @@
         <v>47</v>
       </c>
       <c r="M64" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="N64" t="s">
         <v>34</v>
@@ -4375,17 +4378,17 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="E66" s="6" t="s">
         <v>27</v>
       </c>
@@ -4399,46 +4402,43 @@
         <v>28</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="K66" t="s">
         <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="M66" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N66" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S66" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="U66" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="E68" s="6" t="s">
         <v>27</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>28</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>30</v>
@@ -4464,7 +4464,7 @@
         <v>47</v>
       </c>
       <c r="M68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N68" t="s">
         <v>34</v>
@@ -4478,52 +4478,55 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="E70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="K70" t="s">
         <v>31</v>
       </c>
       <c r="L70" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="M70" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U70" t="s">
         <v>211</v>
-      </c>
-      <c r="N70" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S70" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4552,7 +4555,7 @@
         <v>28</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>30</v>
@@ -4564,10 +4567,10 @@
         <v>47</v>
       </c>
       <c r="M72" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="N72" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q72" s="6" t="s">
         <v>50</v>
@@ -4578,16 +4581,16 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>27</v>
@@ -4614,10 +4617,10 @@
         <v>47</v>
       </c>
       <c r="M74" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N74" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>50</v>
@@ -4628,16 +4631,16 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>27</v>
@@ -4652,7 +4655,7 @@
         <v>28</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>30</v>
@@ -4664,10 +4667,10 @@
         <v>47</v>
       </c>
       <c r="M76" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N76" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="Q76" s="6" t="s">
         <v>50</v>
@@ -4678,17 +4681,17 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="E78" s="6" t="s">
         <v>27</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>28</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>30</v>
@@ -4714,10 +4717,10 @@
         <v>47</v>
       </c>
       <c r="M78" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="N78" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="Q78" s="6" t="s">
         <v>50</v>
@@ -4728,16 +4731,16 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>27</v>
@@ -4752,7 +4755,7 @@
         <v>28</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>30</v>
@@ -4761,134 +4764,131 @@
         <v>31</v>
       </c>
       <c r="L80" t="s">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="M80" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N80" t="s">
         <v>34</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S80" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" t="s">
+        <v>47</v>
+      </c>
+      <c r="M82" t="s">
+        <v>65</v>
+      </c>
+      <c r="N82" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S82" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K84" t="s">
         <v>31</v>
       </c>
-      <c r="L81" t="s">
-        <v>232</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="L84" t="s">
+        <v>240</v>
+      </c>
+      <c r="M84" t="s">
         <v>74</v>
       </c>
-      <c r="N81" t="s">
-        <v>113</v>
-      </c>
-      <c r="O81" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S81" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="A83" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" t="s">
-        <v>31</v>
-      </c>
-      <c r="L83" t="s">
-        <v>47</v>
-      </c>
-      <c r="M83" t="s">
-        <v>237</v>
-      </c>
-      <c r="N83" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q83" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S83" s="7" t="s">
+      <c r="N84" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q84" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="D85" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="E85" s="6" t="s">
         <v>27</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>28</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>30</v>
@@ -4911,16 +4911,19 @@
         <v>31</v>
       </c>
       <c r="L85" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="N85" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="O85" t="s">
+        <v>74</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>35</v>
@@ -4928,16 +4931,16 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>27</v>
@@ -4952,7 +4955,7 @@
         <v>28</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>30</v>
@@ -4964,10 +4967,10 @@
         <v>47</v>
       </c>
       <c r="M87" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="N87" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>50</v>
@@ -4978,16 +4981,16 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>27</v>
@@ -5002,7 +5005,7 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>30</v>
@@ -5011,16 +5014,16 @@
         <v>31</v>
       </c>
       <c r="L89" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M89" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="N89" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>35</v>
@@ -5028,16 +5031,16 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>27</v>
@@ -5052,7 +5055,7 @@
         <v>28</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>30</v>
@@ -5061,16 +5064,16 @@
         <v>31</v>
       </c>
       <c r="L91" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="M91" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="N91" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>35</v>
@@ -5078,16 +5081,16 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>27</v>
@@ -5102,7 +5105,7 @@
         <v>28</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>30</v>
@@ -5111,16 +5114,16 @@
         <v>31</v>
       </c>
       <c r="L93" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M93" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="N93" t="s">
         <v>34</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S93" s="7" t="s">
         <v>35</v>
@@ -5128,17 +5131,17 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="E95" s="6" t="s">
         <v>27</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>28</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>30</v>
@@ -5161,33 +5164,33 @@
         <v>31</v>
       </c>
       <c r="L95" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="M95" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="N95" t="s">
         <v>34</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S95" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:19">
       <c r="A97" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>27</v>
@@ -5202,7 +5205,7 @@
         <v>28</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>30</v>
@@ -5214,7 +5217,7 @@
         <v>47</v>
       </c>
       <c r="M97" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s">
         <v>34</v>
@@ -5226,19 +5229,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:19">
       <c r="A99" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="E99" s="6" t="s">
         <v>27</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>28</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>30</v>
@@ -5264,10 +5267,10 @@
         <v>47</v>
       </c>
       <c r="M99" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="N99" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q99" s="6" t="s">
         <v>50</v>
@@ -5276,18 +5279,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:19">
       <c r="A101" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>27</v>
@@ -5302,7 +5305,7 @@
         <v>28</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>30</v>
@@ -5314,10 +5317,10 @@
         <v>47</v>
       </c>
       <c r="M101" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N101" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>50</v>
@@ -5326,18 +5329,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:19">
       <c r="A103" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>27</v>
@@ -5352,10 +5355,10 @@
         <v>28</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="K103" t="s">
         <v>31</v>
@@ -5364,10 +5367,10 @@
         <v>47</v>
       </c>
       <c r="M103" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="N103" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>50</v>
@@ -5376,18 +5379,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:19">
       <c r="A105" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>27</v>
@@ -5402,10 +5405,10 @@
         <v>28</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="K105" t="s">
         <v>31</v>
@@ -5414,10 +5417,10 @@
         <v>47</v>
       </c>
       <c r="M105" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="N105" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Q105" s="6" t="s">
         <v>50</v>
@@ -5426,18 +5429,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:19">
       <c r="A107" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>27</v>
@@ -5452,10 +5455,10 @@
         <v>28</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="K107" t="s">
         <v>31</v>
@@ -5464,10 +5467,10 @@
         <v>47</v>
       </c>
       <c r="M107" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="N107" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q107" s="6" t="s">
         <v>50</v>
@@ -5476,15 +5479,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:19">
       <c r="A109" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>287</v>
@@ -5505,42 +5508,39 @@
         <v>46</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="K109" t="s">
         <v>31</v>
       </c>
       <c r="L109" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="M109" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="N109" t="s">
         <v>34</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S109" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>27</v>
@@ -5555,48 +5555,42 @@
         <v>28</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="K111" t="s">
         <v>31</v>
       </c>
       <c r="L111" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="M111" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N111" t="s">
-        <v>34</v>
-      </c>
-      <c r="O111" t="s">
-        <v>293</v>
-      </c>
-      <c r="P111" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:21">
       <c r="A113" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>27</v>
@@ -5620,33 +5614,36 @@
         <v>31</v>
       </c>
       <c r="L113" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="M113" t="s">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="N113" t="s">
         <v>34</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S113" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="U113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>27</v>
@@ -5664,39 +5661,45 @@
         <v>46</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="K115" t="s">
         <v>31</v>
       </c>
       <c r="L115" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="M115" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="N115" t="s">
         <v>34</v>
       </c>
+      <c r="O115" t="s">
+        <v>303</v>
+      </c>
+      <c r="P115" t="s">
+        <v>68</v>
+      </c>
       <c r="Q115" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S115" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:21">
       <c r="A117" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>27</v>
@@ -5711,7 +5714,7 @@
         <v>28</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J117" s="6" t="s">
         <v>30</v>
@@ -5723,7 +5726,7 @@
         <v>47</v>
       </c>
       <c r="M117" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="N117" t="s">
         <v>34</v>
@@ -5735,18 +5738,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:21">
       <c r="A119" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>27</v>
@@ -5773,7 +5776,7 @@
         <v>47</v>
       </c>
       <c r="M119" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="N119" t="s">
         <v>34</v>
@@ -5785,18 +5788,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:21">
       <c r="A121" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>27</v>
@@ -5823,10 +5826,10 @@
         <v>47</v>
       </c>
       <c r="M121" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N121" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q121" s="6" t="s">
         <v>50</v>
@@ -5835,18 +5838,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:21">
       <c r="A123" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>27</v>
@@ -5873,10 +5876,10 @@
         <v>47</v>
       </c>
       <c r="M123" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="N123" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q123" s="6" t="s">
         <v>50</v>
@@ -5885,18 +5888,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:21">
       <c r="A125" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>27</v>
@@ -5911,7 +5914,7 @@
         <v>28</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J125" s="6" t="s">
         <v>30</v>
@@ -5923,10 +5926,10 @@
         <v>47</v>
       </c>
       <c r="M125" t="s">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="N125" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q125" s="6" t="s">
         <v>50</v>
@@ -5935,18 +5938,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:21">
       <c r="A127" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>27</v>
@@ -5973,10 +5976,10 @@
         <v>47</v>
       </c>
       <c r="M127" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="N127" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Q127" s="6" t="s">
         <v>50</v>
@@ -5987,16 +5990,16 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>27</v>
@@ -6023,10 +6026,10 @@
         <v>47</v>
       </c>
       <c r="M129" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="N129" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="Q129" s="6" t="s">
         <v>50</v>
@@ -6037,16 +6040,16 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>27</v>
@@ -6073,10 +6076,10 @@
         <v>47</v>
       </c>
       <c r="M131" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="N131" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q131" s="6" t="s">
         <v>50</v>
@@ -6087,16 +6090,16 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>27</v>
@@ -6123,7 +6126,7 @@
         <v>47</v>
       </c>
       <c r="M133" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="N133" t="s">
         <v>34</v>
@@ -6137,13 +6140,13 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>338</v>
@@ -6161,7 +6164,7 @@
         <v>28</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>30</v>
@@ -6173,10 +6176,10 @@
         <v>47</v>
       </c>
       <c r="M135" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="N135" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q135" s="6" t="s">
         <v>50</v>
@@ -6187,16 +6190,16 @@
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>27</v>
@@ -6223,10 +6226,10 @@
         <v>47</v>
       </c>
       <c r="M137" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="N137" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q137" s="6" t="s">
         <v>50</v>
@@ -6237,16 +6240,16 @@
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>27</v>
@@ -6261,7 +6264,7 @@
         <v>28</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>30</v>
@@ -6273,10 +6276,10 @@
         <v>47</v>
       </c>
       <c r="M139" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N139" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="Q139" s="6" t="s">
         <v>50</v>
@@ -6287,16 +6290,16 @@
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>27</v>
@@ -6323,10 +6326,10 @@
         <v>47</v>
       </c>
       <c r="M141" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N141" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>50</v>
@@ -6337,16 +6340,16 @@
     </row>
     <row r="143" spans="1:19">
       <c r="A143" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>27</v>
@@ -6373,10 +6376,10 @@
         <v>47</v>
       </c>
       <c r="M143" t="s">
-        <v>355</v>
+        <v>48</v>
       </c>
       <c r="N143" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>50</v>
@@ -6387,16 +6390,16 @@
     </row>
     <row r="145" spans="1:21">
       <c r="A145" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>27</v>
@@ -6423,10 +6426,10 @@
         <v>47</v>
       </c>
       <c r="M145" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="N145" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>50</v>
@@ -6437,16 +6440,16 @@
     </row>
     <row r="147" spans="1:21">
       <c r="A147" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>27</v>
@@ -6473,10 +6476,10 @@
         <v>47</v>
       </c>
       <c r="M147" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N147" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="Q147" s="6" t="s">
         <v>50</v>
@@ -6484,22 +6487,19 @@
       <c r="S147" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U147" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="149" spans="1:21">
       <c r="A149" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>27</v>
@@ -6526,7 +6526,7 @@
         <v>47</v>
       </c>
       <c r="M149" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="N149" t="s">
         <v>34</v>
@@ -6540,16 +6540,16 @@
     </row>
     <row r="151" spans="1:21">
       <c r="A151" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>27</v>
@@ -6564,7 +6564,7 @@
         <v>28</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>30</v>
@@ -6573,130 +6573,133 @@
         <v>31</v>
       </c>
       <c r="L151" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M151" t="s">
-        <v>33</v>
+        <v>374</v>
       </c>
       <c r="N151" t="s">
         <v>34</v>
       </c>
-      <c r="P151" t="s">
-        <v>48</v>
-      </c>
       <c r="Q151" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R151" s="6" t="s">
-        <v>372</v>
+      <c r="S151" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="U151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K153" t="s">
+        <v>31</v>
+      </c>
+      <c r="L153" t="s">
+        <v>47</v>
+      </c>
+      <c r="M153" t="s">
+        <v>179</v>
+      </c>
+      <c r="N153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q153" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S153" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K155" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" t="s">
+        <v>38</v>
+      </c>
+      <c r="M155" t="s">
+        <v>33</v>
+      </c>
+      <c r="N155" t="s">
+        <v>34</v>
+      </c>
+      <c r="P155" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q155" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R155" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="U155" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21">
-      <c r="A152" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K152" t="s">
-        <v>31</v>
-      </c>
-      <c r="L152" t="s">
-        <v>47</v>
-      </c>
-      <c r="M152" t="s">
-        <v>48</v>
-      </c>
-      <c r="N152" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q152" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S152" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21">
-      <c r="A154" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K154" t="s">
-        <v>31</v>
-      </c>
-      <c r="L154" t="s">
-        <v>47</v>
-      </c>
-      <c r="M154" t="s">
-        <v>219</v>
-      </c>
-      <c r="N154" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q154" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S154" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:21">
       <c r="A156" s="9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>379</v>
@@ -6720,7 +6723,7 @@
         <v>28</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J156" s="6" t="s">
         <v>30</v>
@@ -6732,7 +6735,7 @@
         <v>47</v>
       </c>
       <c r="M156" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N156" t="s">
         <v>34</v>
@@ -6746,16 +6749,16 @@
     </row>
     <row r="158" spans="1:21">
       <c r="A158" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>27</v>
@@ -6770,7 +6773,7 @@
         <v>28</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>30</v>
@@ -6782,7 +6785,7 @@
         <v>47</v>
       </c>
       <c r="M158" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="N158" t="s">
         <v>34</v>
@@ -6796,16 +6799,16 @@
     </row>
     <row r="160" spans="1:21">
       <c r="A160" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>102</v>
+        <v>390</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>27</v>
@@ -6832,10 +6835,10 @@
         <v>47</v>
       </c>
       <c r="M160" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="N160" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q160" s="6" t="s">
         <v>50</v>
@@ -6846,16 +6849,16 @@
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>27</v>
@@ -6870,7 +6873,7 @@
         <v>28</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>30</v>
@@ -6882,10 +6885,10 @@
         <v>47</v>
       </c>
       <c r="M162" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="N162" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q162" s="6" t="s">
         <v>50</v>
@@ -6894,148 +6897,148 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
-      <c r="A163" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="K163" t="s">
+    <row r="164" spans="1:19">
+      <c r="A164" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="L163" t="s">
-        <v>47</v>
-      </c>
-      <c r="M163" t="s">
+      <c r="B164" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="N163" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q163" s="6" t="s">
+      <c r="C164" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" t="s">
+        <v>47</v>
+      </c>
+      <c r="M164" t="s">
+        <v>67</v>
+      </c>
+      <c r="N164" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q164" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S163" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19">
-      <c r="A165" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B165" s="9" t="s">
+      <c r="S164" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="B166" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I165" s="6" t="s">
+      <c r="D166" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I166" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="J166" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K166" t="s">
         <v>31</v>
       </c>
-      <c r="L165" t="s">
-        <v>47</v>
-      </c>
-      <c r="M165" t="s">
-        <v>211</v>
-      </c>
-      <c r="N165" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q165" s="6" t="s">
+      <c r="L166" t="s">
+        <v>47</v>
+      </c>
+      <c r="M166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N166" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q166" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S165" s="7" t="s">
+      <c r="S166" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="E167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="J167" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E167" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="K167" t="s">
-        <v>31</v>
+        <v>407</v>
       </c>
       <c r="L167" t="s">
         <v>47</v>
       </c>
       <c r="M167" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="N167" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q167" s="6" t="s">
         <v>50</v>
@@ -7046,16 +7049,16 @@
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>27</v>
@@ -7070,7 +7073,7 @@
         <v>28</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>30</v>
@@ -7082,10 +7085,10 @@
         <v>47</v>
       </c>
       <c r="M169" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="N169" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Q169" s="6" t="s">
         <v>50</v>
@@ -7096,16 +7099,16 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>27</v>
@@ -7120,7 +7123,7 @@
         <v>28</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>30</v>
@@ -7132,10 +7135,10 @@
         <v>47</v>
       </c>
       <c r="M171" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="N171" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="Q171" s="6" t="s">
         <v>50</v>
@@ -7146,16 +7149,16 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>27</v>
@@ -7170,7 +7173,7 @@
         <v>28</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>30</v>
@@ -7182,10 +7185,10 @@
         <v>47</v>
       </c>
       <c r="M173" t="s">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="N173" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="Q173" s="6" t="s">
         <v>50</v>
@@ -7196,17 +7199,17 @@
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B175" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="E175" s="6" t="s">
         <v>27</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>28</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J175" s="6" t="s">
         <v>30</v>
@@ -7232,10 +7235,10 @@
         <v>47</v>
       </c>
       <c r="M175" t="s">
-        <v>422</v>
+        <v>303</v>
       </c>
       <c r="N175" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q175" s="6" t="s">
         <v>50</v>
@@ -7246,16 +7249,16 @@
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>27</v>
@@ -7270,7 +7273,7 @@
         <v>28</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J177" s="6" t="s">
         <v>30</v>
@@ -7282,10 +7285,10 @@
         <v>47</v>
       </c>
       <c r="M177" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
       <c r="N177" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q177" s="6" t="s">
         <v>50</v>
@@ -7296,17 +7299,17 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>429</v>
-      </c>
       <c r="E179" s="6" t="s">
         <v>27</v>
       </c>
@@ -7320,7 +7323,7 @@
         <v>28</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>30</v>
@@ -7332,10 +7335,10 @@
         <v>47</v>
       </c>
       <c r="M179" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N179" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="Q179" s="6" t="s">
         <v>50</v>
@@ -7346,16 +7349,16 @@
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>27</v>
@@ -7379,139 +7382,83 @@
         <v>31</v>
       </c>
       <c r="L181" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M181" t="s">
-        <v>335</v>
+        <v>204</v>
       </c>
       <c r="N181" t="s">
-        <v>34</v>
-      </c>
-      <c r="P181" t="s">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="Q181" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R181" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19">
-      <c r="A182" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I182" s="6" t="s">
+      <c r="S181" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I183" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J182" s="6" t="s">
+      <c r="J183" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K183" t="s">
         <v>31</v>
       </c>
-      <c r="L182" t="s">
-        <v>47</v>
-      </c>
-      <c r="M182" t="s">
-        <v>437</v>
-      </c>
-      <c r="N182" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q182" s="6" t="s">
+      <c r="L183" t="s">
+        <v>47</v>
+      </c>
+      <c r="M183" t="s">
+        <v>440</v>
+      </c>
+      <c r="N183" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q183" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S182" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19">
-      <c r="A184" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I184" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J184" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K184" t="s">
-        <v>31</v>
-      </c>
-      <c r="L184" t="s">
-        <v>38</v>
-      </c>
-      <c r="M184" t="s">
-        <v>335</v>
-      </c>
-      <c r="N184" t="s">
-        <v>34</v>
-      </c>
-      <c r="P184" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q184" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R184" s="6" t="s">
-        <v>441</v>
+      <c r="S183" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>439</v>
-      </c>
       <c r="C185" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>27</v>
@@ -7535,83 +7482,139 @@
         <v>31</v>
       </c>
       <c r="L185" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M185" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="N185" t="s">
         <v>34</v>
       </c>
+      <c r="P185" t="s">
+        <v>345</v>
+      </c>
       <c r="Q185" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S185" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19">
-      <c r="A187" s="9" t="s">
+      <c r="R185" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="D186" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I187" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J187" s="6" t="s">
+      <c r="E186" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J186" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K187" t="s">
+      <c r="K186" t="s">
         <v>31</v>
       </c>
-      <c r="L187" t="s">
-        <v>47</v>
-      </c>
-      <c r="M187" t="s">
-        <v>123</v>
-      </c>
-      <c r="N187" t="s">
+      <c r="L186" t="s">
+        <v>47</v>
+      </c>
+      <c r="M186" t="s">
+        <v>447</v>
+      </c>
+      <c r="N186" t="s">
         <v>34</v>
       </c>
-      <c r="Q187" s="6" t="s">
+      <c r="Q186" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S187" s="7" t="s">
-        <v>35</v>
+      <c r="S186" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K188" t="s">
+        <v>31</v>
+      </c>
+      <c r="L188" t="s">
+        <v>38</v>
+      </c>
+      <c r="M188" t="s">
+        <v>345</v>
+      </c>
+      <c r="N188" t="s">
+        <v>34</v>
+      </c>
+      <c r="P188" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q188" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R188" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="9" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>27</v>
@@ -7626,7 +7629,7 @@
         <v>28</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J189" s="6" t="s">
         <v>30</v>
@@ -7638,7 +7641,7 @@
         <v>47</v>
       </c>
       <c r="M189" t="s">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="N189" t="s">
         <v>34</v>
@@ -7652,16 +7655,16 @@
     </row>
     <row r="191" spans="1:19">
       <c r="A191" s="9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>27</v>
@@ -7676,25 +7679,25 @@
         <v>28</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>455</v>
+        <v>30</v>
       </c>
       <c r="K191" t="s">
-        <v>397</v>
+        <v>31</v>
       </c>
       <c r="L191" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M191" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="N191" t="s">
         <v>34</v>
       </c>
       <c r="Q191" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S191" s="7" t="s">
         <v>35</v>
@@ -7702,17 +7705,17 @@
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="E193" s="6" t="s">
         <v>27</v>
       </c>
@@ -7726,19 +7729,19 @@
         <v>28</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>459</v>
+        <v>30</v>
       </c>
       <c r="K193" t="s">
-        <v>397</v>
+        <v>31</v>
       </c>
       <c r="L193" t="s">
         <v>47</v>
       </c>
       <c r="M193" t="s">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="N193" t="s">
         <v>34</v>
@@ -7764,34 +7767,34 @@
         <v>463</v>
       </c>
       <c r="E195" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I195" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="J195" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G195" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H195" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I195" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J195" s="6" t="s">
-        <v>466</v>
-      </c>
       <c r="K195" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L195" t="s">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="M195" t="s">
-        <v>467</v>
+        <v>74</v>
       </c>
       <c r="N195" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="Q195" s="6" t="s">
         <v>35</v>
@@ -7802,43 +7805,43 @@
     </row>
     <row r="197" spans="1:19">
       <c r="A197" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J197" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I197" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="K197" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L197" t="s">
         <v>47</v>
       </c>
       <c r="M197" t="s">
-        <v>139</v>
+        <v>396</v>
       </c>
       <c r="N197" t="s">
         <v>34</v>
@@ -7852,43 +7855,43 @@
     </row>
     <row r="199" spans="1:19">
       <c r="A199" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J199" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H199" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I199" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J199" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="K199" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L199" t="s">
         <v>47</v>
       </c>
       <c r="M199" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N199" t="s">
         <v>34</v>
@@ -7902,43 +7905,43 @@
     </row>
     <row r="201" spans="1:19">
       <c r="A201" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J201" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H201" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I201" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J201" s="6" t="s">
-        <v>482</v>
-      </c>
       <c r="K201" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L201" t="s">
         <v>47</v>
       </c>
       <c r="M201" t="s">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="N201" t="s">
         <v>34</v>
@@ -7952,49 +7955,49 @@
     </row>
     <row r="203" spans="1:19">
       <c r="A203" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="K203" t="s">
+        <v>407</v>
+      </c>
+      <c r="L203" t="s">
+        <v>47</v>
+      </c>
+      <c r="M203" t="s">
         <v>484</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I203" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="J203" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="K203" t="s">
-        <v>397</v>
-      </c>
-      <c r="L203" t="s">
-        <v>73</v>
-      </c>
-      <c r="M203" t="s">
-        <v>40</v>
       </c>
       <c r="N203" t="s">
         <v>34</v>
       </c>
       <c r="Q203" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S203" s="7" t="s">
         <v>35</v>
@@ -8002,49 +8005,49 @@
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J205" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H205" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I205" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="J205" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="K205" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L205" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M205" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="N205" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="Q205" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S205" s="7" t="s">
         <v>35</v>
@@ -8052,146 +8055,146 @@
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J207" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H207" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I207" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J207" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="K207" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L207" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M207" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="N207" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="Q207" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="208" spans="1:19">
-      <c r="A208" s="9" t="s">
+      <c r="S207" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J209" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H208" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I208" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J208" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="K208" t="s">
-        <v>397</v>
-      </c>
-      <c r="L208" t="s">
-        <v>47</v>
-      </c>
-      <c r="M208" t="s">
-        <v>501</v>
-      </c>
-      <c r="N208" t="s">
+      <c r="K209" t="s">
+        <v>407</v>
+      </c>
+      <c r="L209" t="s">
+        <v>73</v>
+      </c>
+      <c r="M209" t="s">
+        <v>74</v>
+      </c>
+      <c r="N209" t="s">
         <v>34</v>
       </c>
-      <c r="Q208" s="6" t="s">
+      <c r="Q209" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="S208" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="K210" t="s">
+        <v>407</v>
+      </c>
+      <c r="L210" t="s">
+        <v>47</v>
+      </c>
+      <c r="M210" t="s">
         <v>502</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H210" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I210" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J210" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="K210" t="s">
-        <v>397</v>
-      </c>
-      <c r="L210" t="s">
-        <v>73</v>
-      </c>
-      <c r="M210" t="s">
-        <v>317</v>
       </c>
       <c r="N210" t="s">
         <v>34</v>
       </c>
       <c r="Q210" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S210" s="7" t="s">
         <v>35</v>
@@ -8199,49 +8202,49 @@
     </row>
     <row r="212" spans="1:19">
       <c r="A212" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J212" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B212" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G212" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H212" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I212" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>511</v>
-      </c>
       <c r="K212" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L212" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M212" t="s">
-        <v>512</v>
+        <v>327</v>
       </c>
       <c r="N212" t="s">
         <v>34</v>
       </c>
       <c r="Q212" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S212" s="7" t="s">
         <v>35</v>
@@ -8249,43 +8252,43 @@
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="K214" t="s">
+        <v>407</v>
+      </c>
+      <c r="L214" t="s">
+        <v>47</v>
+      </c>
+      <c r="M214" t="s">
         <v>513</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H214" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I214" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J214" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="K214" t="s">
-        <v>397</v>
-      </c>
-      <c r="L214" t="s">
-        <v>47</v>
-      </c>
-      <c r="M214" t="s">
-        <v>517</v>
       </c>
       <c r="N214" t="s">
         <v>34</v>
@@ -8299,49 +8302,49 @@
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J216" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K216" t="s">
+        <v>407</v>
+      </c>
+      <c r="L216" t="s">
+        <v>47</v>
+      </c>
+      <c r="M216" t="s">
         <v>518</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H216" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I216" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J216" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="K216" t="s">
-        <v>397</v>
-      </c>
-      <c r="L216" t="s">
-        <v>73</v>
-      </c>
-      <c r="M216" t="s">
-        <v>79</v>
-      </c>
       <c r="N216" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q216" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S216" s="7" t="s">
         <v>35</v>
@@ -8349,49 +8352,49 @@
     </row>
     <row r="218" spans="1:19">
       <c r="A218" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J218" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H218" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I218" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J218" s="6" t="s">
-        <v>527</v>
-      </c>
       <c r="K218" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L218" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M218" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="N218" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="Q218" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S218" s="7" t="s">
         <v>35</v>
@@ -8399,46 +8402,46 @@
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J220" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H220" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J220" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="K220" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L220" t="s">
         <v>47</v>
       </c>
       <c r="M220" t="s">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="N220" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="Q220" s="6" t="s">
         <v>50</v>
@@ -8449,16 +8452,16 @@
     </row>
     <row r="222" spans="1:19">
       <c r="A222" s="9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>27</v>
@@ -8476,16 +8479,16 @@
         <v>85</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K222" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L222" t="s">
         <v>47</v>
       </c>
       <c r="M222" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="N222" t="s">
         <v>34</v>
@@ -8499,49 +8502,49 @@
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J224" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H224" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I224" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J224" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="K224" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L224" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M224" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N224" t="s">
         <v>34</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S224" s="7" t="s">
         <v>35</v>
@@ -8549,13 +8552,13 @@
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>544</v>
+        <v>106</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>541</v>
@@ -8573,19 +8576,19 @@
         <v>28</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K226" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L226" t="s">
         <v>73</v>
       </c>
       <c r="M226" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N226" t="s">
         <v>34</v>
@@ -8599,16 +8602,16 @@
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>27</v>
@@ -8623,25 +8626,25 @@
         <v>28</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="K228" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L228" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M228" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="N228" t="s">
         <v>34</v>
       </c>
       <c r="Q228" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S228" s="7" t="s">
         <v>35</v>
@@ -8649,16 +8652,16 @@
     </row>
     <row r="230" spans="1:19">
       <c r="A230" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>27</v>
@@ -8673,19 +8676,19 @@
         <v>28</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K230" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L230" t="s">
         <v>47</v>
       </c>
       <c r="M230" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="N230" t="s">
         <v>34</v>
@@ -8699,13 +8702,13 @@
     </row>
     <row r="232" spans="1:19">
       <c r="A232" s="9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>553</v>
@@ -8723,22 +8726,22 @@
         <v>28</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K232" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L232" t="s">
         <v>47</v>
       </c>
       <c r="M232" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="N232" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q232" s="6" t="s">
         <v>50</v>
@@ -8749,16 +8752,16 @@
     </row>
     <row r="234" spans="1:19">
       <c r="A234" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>27</v>
@@ -8773,22 +8776,22 @@
         <v>28</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>85</v>
+        <v>405</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="K234" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L234" t="s">
         <v>47</v>
       </c>
       <c r="M234" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="N234" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q234" s="6" t="s">
         <v>50</v>
@@ -8799,16 +8802,16 @@
     </row>
     <row r="236" spans="1:19">
       <c r="A236" s="9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>27</v>
@@ -8823,19 +8826,19 @@
         <v>28</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="K236" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L236" t="s">
         <v>47</v>
       </c>
       <c r="M236" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="N236" t="s">
         <v>34</v>
@@ -8849,16 +8852,16 @@
     </row>
     <row r="238" spans="1:19">
       <c r="A238" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>244</v>
+        <v>566</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>569</v>
+        <v>348</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>27</v>
@@ -8873,19 +8876,19 @@
         <v>28</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>85</v>
+        <v>405</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="K238" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L238" t="s">
         <v>47</v>
       </c>
       <c r="M238" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="N238" t="s">
         <v>34</v>
@@ -8899,16 +8902,16 @@
     </row>
     <row r="240" spans="1:19">
       <c r="A240" s="9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>573</v>
+        <v>254</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>27</v>
@@ -8923,25 +8926,25 @@
         <v>28</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="K240" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L240" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M240" t="s">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="N240" t="s">
         <v>34</v>
       </c>
       <c r="Q240" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S240" s="7" t="s">
         <v>35</v>
@@ -8949,16 +8952,16 @@
     </row>
     <row r="242" spans="1:19">
       <c r="A242" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>27</v>
@@ -8973,19 +8976,19 @@
         <v>28</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="K242" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L242" t="s">
         <v>73</v>
       </c>
       <c r="M242" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="N242" t="s">
         <v>34</v>
@@ -8999,16 +9002,16 @@
     </row>
     <row r="244" spans="1:19">
       <c r="A244" s="9" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>27</v>
@@ -9023,16 +9026,19 @@
         <v>28</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K244" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L244" t="s">
-        <v>292</v>
+        <v>73</v>
+      </c>
+      <c r="M244" t="s">
+        <v>303</v>
       </c>
       <c r="N244" t="s">
         <v>34</v>
@@ -9046,16 +9052,16 @@
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>110</v>
+        <v>581</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>27</v>
@@ -9070,27 +9076,74 @@
         <v>28</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
       <c r="K246" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L246" t="s">
-        <v>47</v>
-      </c>
-      <c r="M246" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="N246" t="s">
         <v>34</v>
       </c>
       <c r="Q246" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S246" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19">
+      <c r="A248" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="K248" t="s">
+        <v>407</v>
+      </c>
+      <c r="L248" t="s">
+        <v>47</v>
+      </c>
+      <c r="M248" t="s">
+        <v>216</v>
+      </c>
+      <c r="N248" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q248" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S246" s="7" t="s">
+      <c r="S248" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9178,10 +9231,10 @@
     <hyperlink ref="B78" r:id="rId80"/>
     <hyperlink ref="A80" r:id="rId81"/>
     <hyperlink ref="B80" r:id="rId82"/>
-    <hyperlink ref="A81" r:id="rId83"/>
-    <hyperlink ref="B81" r:id="rId84"/>
-    <hyperlink ref="A83" r:id="rId85"/>
-    <hyperlink ref="B83" r:id="rId86"/>
+    <hyperlink ref="A82" r:id="rId83"/>
+    <hyperlink ref="B82" r:id="rId84"/>
+    <hyperlink ref="A84" r:id="rId85"/>
+    <hyperlink ref="B84" r:id="rId86"/>
     <hyperlink ref="A85" r:id="rId87"/>
     <hyperlink ref="B85" r:id="rId88"/>
     <hyperlink ref="A87" r:id="rId89"/>
@@ -9250,10 +9303,10 @@
     <hyperlink ref="B149" r:id="rId152"/>
     <hyperlink ref="A151" r:id="rId153"/>
     <hyperlink ref="B151" r:id="rId154"/>
-    <hyperlink ref="A152" r:id="rId155"/>
-    <hyperlink ref="B152" r:id="rId156"/>
-    <hyperlink ref="A154" r:id="rId157"/>
-    <hyperlink ref="B154" r:id="rId158"/>
+    <hyperlink ref="A153" r:id="rId155"/>
+    <hyperlink ref="B153" r:id="rId156"/>
+    <hyperlink ref="A155" r:id="rId157"/>
+    <hyperlink ref="B155" r:id="rId158"/>
     <hyperlink ref="A156" r:id="rId159"/>
     <hyperlink ref="B156" r:id="rId160"/>
     <hyperlink ref="A158" r:id="rId161"/>
@@ -9262,10 +9315,10 @@
     <hyperlink ref="B160" r:id="rId164"/>
     <hyperlink ref="A162" r:id="rId165"/>
     <hyperlink ref="B162" r:id="rId166"/>
-    <hyperlink ref="A163" r:id="rId167"/>
-    <hyperlink ref="B163" r:id="rId168"/>
-    <hyperlink ref="A165" r:id="rId169"/>
-    <hyperlink ref="B165" r:id="rId170"/>
+    <hyperlink ref="A164" r:id="rId167"/>
+    <hyperlink ref="B164" r:id="rId168"/>
+    <hyperlink ref="A166" r:id="rId169"/>
+    <hyperlink ref="B166" r:id="rId170"/>
     <hyperlink ref="A167" r:id="rId171"/>
     <hyperlink ref="B167" r:id="rId172"/>
     <hyperlink ref="A169" r:id="rId173"/>
@@ -9282,14 +9335,14 @@
     <hyperlink ref="B179" r:id="rId184"/>
     <hyperlink ref="A181" r:id="rId185"/>
     <hyperlink ref="B181" r:id="rId186"/>
-    <hyperlink ref="A182" r:id="rId187"/>
-    <hyperlink ref="B182" r:id="rId188"/>
-    <hyperlink ref="A184" r:id="rId189"/>
-    <hyperlink ref="B184" r:id="rId190"/>
-    <hyperlink ref="A185" r:id="rId191"/>
-    <hyperlink ref="B185" r:id="rId192"/>
-    <hyperlink ref="A187" r:id="rId193"/>
-    <hyperlink ref="B187" r:id="rId194"/>
+    <hyperlink ref="A183" r:id="rId187"/>
+    <hyperlink ref="B183" r:id="rId188"/>
+    <hyperlink ref="A185" r:id="rId189"/>
+    <hyperlink ref="B185" r:id="rId190"/>
+    <hyperlink ref="A186" r:id="rId191"/>
+    <hyperlink ref="B186" r:id="rId192"/>
+    <hyperlink ref="A188" r:id="rId193"/>
+    <hyperlink ref="B188" r:id="rId194"/>
     <hyperlink ref="A189" r:id="rId195"/>
     <hyperlink ref="B189" r:id="rId196"/>
     <hyperlink ref="A191" r:id="rId197"/>
@@ -9310,8 +9363,8 @@
     <hyperlink ref="B205" r:id="rId212"/>
     <hyperlink ref="A207" r:id="rId213"/>
     <hyperlink ref="B207" r:id="rId214"/>
-    <hyperlink ref="A208" r:id="rId215"/>
-    <hyperlink ref="B208" r:id="rId216"/>
+    <hyperlink ref="A209" r:id="rId215"/>
+    <hyperlink ref="B209" r:id="rId216"/>
     <hyperlink ref="A210" r:id="rId217"/>
     <hyperlink ref="B210" r:id="rId218"/>
     <hyperlink ref="A212" r:id="rId219"/>
@@ -9350,6 +9403,8 @@
     <hyperlink ref="B244" r:id="rId252"/>
     <hyperlink ref="A246" r:id="rId253"/>
     <hyperlink ref="B246" r:id="rId254"/>
+    <hyperlink ref="A248" r:id="rId255"/>
+    <hyperlink ref="B248" r:id="rId256"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9466,7 +9521,7 @@
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N2" t="s">
         <v>80</v>
@@ -9510,7 +9565,7 @@
         <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N4" t="s">
         <v>80</v>
@@ -9521,13 +9576,13 @@
         <v>592</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>27</v>
@@ -9554,7 +9609,7 @@
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
@@ -9565,13 +9620,13 @@
         <v>593</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -9598,10 +9653,10 @@
         <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -9609,13 +9664,13 @@
         <v>594</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -9642,10 +9697,10 @@
         <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -9653,13 +9708,13 @@
         <v>595</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -9686,7 +9741,7 @@
         <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -9697,13 +9752,13 @@
         <v>596</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
@@ -9730,7 +9785,7 @@
         <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="N14" t="s">
         <v>91</v>
@@ -9741,13 +9796,13 @@
         <v>597</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
@@ -9785,13 +9840,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -9818,7 +9873,7 @@
         <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="N18" t="s">
         <v>34</v>
@@ -9829,13 +9884,13 @@
         <v>599</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -9862,10 +9917,10 @@
         <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -9873,13 +9928,13 @@
         <v>600</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>27</v>
@@ -9906,7 +9961,7 @@
         <v>47</v>
       </c>
       <c r="M22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
@@ -9917,13 +9972,13 @@
         <v>601</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -9950,7 +10005,7 @@
         <v>47</v>
       </c>
       <c r="M24" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
@@ -9961,13 +10016,13 @@
         <v>602</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -9994,7 +10049,7 @@
         <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s">
         <v>34</v>
@@ -10005,13 +10060,13 @@
         <v>603</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -10038,7 +10093,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s">
         <v>80</v>
@@ -10093,13 +10148,13 @@
         <v>608</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -10126,10 +10181,10 @@
         <v>47</v>
       </c>
       <c r="M32" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="N32" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10137,13 +10192,13 @@
         <v>609</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -10170,7 +10225,7 @@
         <v>73</v>
       </c>
       <c r="M34" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
@@ -10181,13 +10236,13 @@
         <v>611</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>27</v>
@@ -10214,7 +10269,7 @@
         <v>47</v>
       </c>
       <c r="M36" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N36" t="s">
         <v>34</v>
@@ -10225,13 +10280,13 @@
         <v>612</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -10261,7 +10316,7 @@
         <v>74</v>
       </c>
       <c r="N38" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -10269,13 +10324,13 @@
         <v>614</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -10299,10 +10354,10 @@
         <v>589</v>
       </c>
       <c r="L40" t="s">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="N40" t="s">
         <v>34</v>
@@ -10316,13 +10371,13 @@
         <v>615</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -10346,10 +10401,10 @@
         <v>589</v>
       </c>
       <c r="L42" t="s">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s">
         <v>34</v>
@@ -10366,13 +10421,13 @@
         <v>617</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>27</v>
@@ -10399,10 +10454,10 @@
         <v>47</v>
       </c>
       <c r="M44" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -10446,7 +10501,7 @@
         <v>33</v>
       </c>
       <c r="N46" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -10487,7 +10542,7 @@
         <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="N48" t="s">
         <v>34</v>
@@ -10498,13 +10553,13 @@
         <v>626</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>27</v>
@@ -10531,7 +10586,7 @@
         <v>47</v>
       </c>
       <c r="M50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="N50" t="s">
         <v>34</v>
@@ -10542,13 +10597,13 @@
         <v>627</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>27</v>
@@ -10575,7 +10630,7 @@
         <v>47</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="N52" t="s">
         <v>34</v>
@@ -10718,13 +10773,13 @@
         <v>628</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>27</v>

--- a/excel_reports/Latesa_Pasley.xlsx
+++ b/excel_reports/Latesa_Pasley.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="956">
   <si>
     <t>Policy Record</t>
   </si>
@@ -2277,6 +2277,33 @@
   </si>
   <si>
     <t xml:space="preserve">Humana USAA Honor with Rx (PPO) </t>
+  </si>
+  <si>
+    <t>3167055753</t>
+  </si>
+  <si>
+    <t>5526601</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Boyer-Curtis</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Duffey</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice (PPO)</t>
+  </si>
+  <si>
+    <t>04-28-2022</t>
+  </si>
+  <si>
+    <t>06-01-2022</t>
   </si>
   <si>
     <t>4199322171</t>
@@ -3274,12 +3301,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -3287,7 +3314,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B3" s="2">
         <v>111</v>
@@ -3295,18 +3322,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -3315,7 +3342,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -3323,30 +3350,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -3355,12 +3382,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="B12" s="2">
         <v>65</v>
@@ -3368,20 +3395,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -3390,12 +3417,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3403,7 +3430,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -3411,7 +3438,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3419,7 +3446,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -3428,7 +3455,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -3437,7 +3464,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3445,7 +3472,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3453,7 +3480,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3461,7 +3488,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -3470,7 +3497,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -6653,7 +6680,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W296"/>
+  <dimension ref="A1:W298"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12891,10 +12918,10 @@
         <v>755</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>370</v>
+        <v>756</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>371</v>
+        <v>757</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>370</v>
@@ -12903,22 +12930,25 @@
         <v>371</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K235" t="s">
         <v>33</v>
       </c>
       <c r="L235" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="M235" t="s">
-        <v>22</v>
+        <v>759</v>
       </c>
       <c r="N235" t="s">
-        <v>93</v>
+        <v>760</v>
+      </c>
+      <c r="O235" t="s">
+        <v>338</v>
       </c>
       <c r="Q235" s="8" t="s">
         <v>373</v>
@@ -12929,16 +12959,16 @@
     </row>
     <row r="237" spans="1:19">
       <c r="A237" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>96</v>
+        <v>763</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>97</v>
+        <v>764</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>370</v>
@@ -12956,22 +12986,22 @@
         <v>98</v>
       </c>
       <c r="J237" s="8" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="K237" t="s">
         <v>33</v>
       </c>
       <c r="L237" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="M237" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N237" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="Q237" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="S237" s="10" t="s">
         <v>373</v>
@@ -12979,13 +13009,13 @@
     </row>
     <row r="239" spans="1:19">
       <c r="A239" s="7" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>97</v>
@@ -13006,7 +13036,7 @@
         <v>98</v>
       </c>
       <c r="J239" s="8" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="K239" t="s">
         <v>33</v>
@@ -13029,16 +13059,16 @@
     </row>
     <row r="241" spans="1:19">
       <c r="A241" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E241" s="8" t="s">
         <v>370</v>
@@ -13053,10 +13083,10 @@
         <v>371</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="J241" s="8" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="K241" t="s">
         <v>33</v>
@@ -13065,7 +13095,7 @@
         <v>19</v>
       </c>
       <c r="M241" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="N241" t="s">
         <v>28</v>
@@ -13079,16 +13109,16 @@
     </row>
     <row r="243" spans="1:19">
       <c r="A243" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>370</v>
@@ -13103,10 +13133,10 @@
         <v>371</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="J243" s="8" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="K243" t="s">
         <v>33</v>
@@ -13115,7 +13145,7 @@
         <v>19</v>
       </c>
       <c r="M243" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="N243" t="s">
         <v>28</v>
@@ -13129,16 +13159,16 @@
     </row>
     <row r="245" spans="1:19">
       <c r="A245" s="7" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>771</v>
+        <v>241</v>
       </c>
       <c r="E245" s="8" t="s">
         <v>370</v>
@@ -13153,10 +13183,10 @@
         <v>371</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>772</v>
+        <v>242</v>
       </c>
       <c r="J245" s="8" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="K245" t="s">
         <v>33</v>
@@ -13165,10 +13195,10 @@
         <v>19</v>
       </c>
       <c r="M245" t="s">
-        <v>456</v>
+        <v>197</v>
       </c>
       <c r="N245" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q245" s="8" t="s">
         <v>386</v>
@@ -13179,16 +13209,16 @@
     </row>
     <row r="247" spans="1:19">
       <c r="A247" s="7" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>320</v>
+        <v>780</v>
       </c>
       <c r="E247" s="8" t="s">
         <v>370</v>
@@ -13203,10 +13233,10 @@
         <v>371</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>17</v>
+        <v>781</v>
       </c>
       <c r="J247" s="8" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="K247" t="s">
         <v>33</v>
@@ -13215,77 +13245,77 @@
         <v>19</v>
       </c>
       <c r="M247" t="s">
-        <v>321</v>
+        <v>456</v>
       </c>
       <c r="N247" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q247" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="248" spans="1:19">
-      <c r="A248" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="C248" s="8" t="s">
+      <c r="S247" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19">
+      <c r="A249" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C249" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D248" s="8" t="s">
+      <c r="D249" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E248" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F248" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="G248" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H248" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I248" s="8" t="s">
+      <c r="E249" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I249" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J248" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="K248" t="s">
+      <c r="J249" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="K249" t="s">
         <v>33</v>
       </c>
-      <c r="L248" t="s">
-        <v>19</v>
-      </c>
-      <c r="M248" t="s">
-        <v>304</v>
-      </c>
-      <c r="N248" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q248" s="8" t="s">
+      <c r="L249" t="s">
+        <v>19</v>
+      </c>
+      <c r="M249" t="s">
+        <v>321</v>
+      </c>
+      <c r="N249" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q249" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="S248" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:19">
       <c r="A250" s="7" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>370</v>
@@ -13300,10 +13330,10 @@
         <v>371</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="J250" s="8" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="K250" t="s">
         <v>33</v>
@@ -13312,7 +13342,7 @@
         <v>19</v>
       </c>
       <c r="M250" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="N250" t="s">
         <v>28</v>
@@ -13326,16 +13356,16 @@
     </row>
     <row r="252" spans="1:19">
       <c r="A252" s="7" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>783</v>
+        <v>288</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>784</v>
+        <v>289</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>370</v>
@@ -13350,25 +13380,25 @@
         <v>371</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
       <c r="J252" s="8" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="K252" t="s">
         <v>33</v>
       </c>
       <c r="L252" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="M252" t="s">
-        <v>648</v>
+        <v>282</v>
       </c>
       <c r="N252" t="s">
         <v>28</v>
       </c>
       <c r="Q252" s="8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="S252" s="10" t="s">
         <v>373</v>
@@ -13376,16 +13406,16 @@
     </row>
     <row r="254" spans="1:19">
       <c r="A254" s="7" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>133</v>
+        <v>792</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>134</v>
+        <v>793</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>370</v>
@@ -13400,25 +13430,25 @@
         <v>371</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>130</v>
+        <v>781</v>
       </c>
       <c r="J254" s="8" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="K254" t="s">
         <v>33</v>
       </c>
       <c r="L254" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="M254" t="s">
-        <v>135</v>
+        <v>648</v>
       </c>
       <c r="N254" t="s">
         <v>28</v>
       </c>
       <c r="Q254" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="S254" s="10" t="s">
         <v>373</v>
@@ -13426,16 +13456,16 @@
     </row>
     <row r="256" spans="1:19">
       <c r="A256" s="7" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>515</v>
+        <v>134</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>370</v>
@@ -13453,22 +13483,22 @@
         <v>130</v>
       </c>
       <c r="J256" s="8" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="K256" t="s">
         <v>33</v>
       </c>
       <c r="L256" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="M256" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="N256" t="s">
         <v>28</v>
       </c>
       <c r="Q256" s="8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="S256" s="10" t="s">
         <v>373</v>
@@ -13476,16 +13506,16 @@
     </row>
     <row r="258" spans="1:19">
       <c r="A258" s="7" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>734</v>
+        <v>90</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>794</v>
+        <v>515</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>370</v>
@@ -13500,25 +13530,25 @@
         <v>371</v>
       </c>
       <c r="I258" s="8" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="J258" s="8" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="K258" t="s">
         <v>33</v>
       </c>
       <c r="L258" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="M258" t="s">
-        <v>796</v>
+        <v>311</v>
       </c>
       <c r="N258" t="s">
         <v>28</v>
       </c>
       <c r="Q258" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="S258" s="10" t="s">
         <v>373</v>
@@ -13526,16 +13556,16 @@
     </row>
     <row r="260" spans="1:19">
       <c r="A260" s="7" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>128</v>
+        <v>734</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>129</v>
+        <v>803</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>370</v>
@@ -13550,10 +13580,10 @@
         <v>371</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="K260" t="s">
         <v>33</v>
@@ -13562,10 +13592,10 @@
         <v>19</v>
       </c>
       <c r="M260" t="s">
-        <v>121</v>
+        <v>805</v>
       </c>
       <c r="N260" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q260" s="8" t="s">
         <v>386</v>
@@ -13576,16 +13606,16 @@
     </row>
     <row r="262" spans="1:19">
       <c r="A262" s="7" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>802</v>
+        <v>128</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>803</v>
+        <v>129</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>370</v>
@@ -13603,7 +13633,7 @@
         <v>130</v>
       </c>
       <c r="J262" s="8" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="K262" t="s">
         <v>33</v>
@@ -13612,10 +13642,10 @@
         <v>19</v>
       </c>
       <c r="M262" t="s">
-        <v>456</v>
+        <v>121</v>
       </c>
       <c r="N262" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q262" s="8" t="s">
         <v>386</v>
@@ -13626,16 +13656,16 @@
     </row>
     <row r="264" spans="1:19">
       <c r="A264" s="7" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>370</v>
@@ -13653,22 +13683,22 @@
         <v>130</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="K264" t="s">
         <v>33</v>
       </c>
       <c r="L264" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="M264" t="s">
-        <v>648</v>
+        <v>456</v>
       </c>
       <c r="N264" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q264" s="8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="S264" s="10" t="s">
         <v>373</v>
@@ -13676,16 +13706,16 @@
     </row>
     <row r="266" spans="1:19">
       <c r="A266" s="7" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>370</v>
@@ -13700,25 +13730,25 @@
         <v>371</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="J266" s="8" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="K266" t="s">
         <v>33</v>
       </c>
       <c r="L266" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="M266" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="N266" t="s">
         <v>28</v>
       </c>
       <c r="Q266" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="S266" s="10" t="s">
         <v>373</v>
@@ -13726,16 +13756,16 @@
     </row>
     <row r="268" spans="1:19">
       <c r="A268" s="7" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>70</v>
+        <v>821</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>71</v>
+        <v>822</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>370</v>
@@ -13753,7 +13783,7 @@
         <v>17</v>
       </c>
       <c r="J268" s="8" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="K268" t="s">
         <v>33</v>
@@ -13762,7 +13792,7 @@
         <v>19</v>
       </c>
       <c r="M268" t="s">
-        <v>51</v>
+        <v>695</v>
       </c>
       <c r="N268" t="s">
         <v>28</v>
@@ -13776,16 +13806,16 @@
     </row>
     <row r="270" spans="1:19">
       <c r="A270" s="7" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>370</v>
@@ -13800,10 +13830,10 @@
         <v>371</v>
       </c>
       <c r="I270" s="8" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="J270" s="8" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="K270" t="s">
         <v>33</v>
@@ -13812,7 +13842,7 @@
         <v>19</v>
       </c>
       <c r="M270" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="N270" t="s">
         <v>28</v>
@@ -13826,13 +13856,13 @@
     </row>
     <row r="272" spans="1:19">
       <c r="A272" s="7" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>153</v>
@@ -13853,7 +13883,7 @@
         <v>98</v>
       </c>
       <c r="J272" s="8" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="K272" t="s">
         <v>33</v>
@@ -13876,16 +13906,16 @@
     </row>
     <row r="274" spans="1:19">
       <c r="A274" s="7" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>824</v>
+        <v>156</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>825</v>
+        <v>153</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>370</v>
@@ -13903,7 +13933,7 @@
         <v>98</v>
       </c>
       <c r="J274" s="8" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="K274" t="s">
         <v>33</v>
@@ -13912,7 +13942,7 @@
         <v>19</v>
       </c>
       <c r="M274" t="s">
-        <v>403</v>
+        <v>145</v>
       </c>
       <c r="N274" t="s">
         <v>28</v>
@@ -13926,16 +13956,16 @@
     </row>
     <row r="276" spans="1:19">
       <c r="A276" s="7" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>104</v>
+        <v>833</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>105</v>
+        <v>834</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>370</v>
@@ -13953,7 +13983,7 @@
         <v>98</v>
       </c>
       <c r="J276" s="8" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="K276" t="s">
         <v>33</v>
@@ -13962,7 +13992,7 @@
         <v>19</v>
       </c>
       <c r="M276" t="s">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="N276" t="s">
         <v>28</v>
@@ -13976,13 +14006,13 @@
     </row>
     <row r="278" spans="1:19">
       <c r="A278" s="7" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>832</v>
+        <v>104</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>105</v>
@@ -14000,10 +14030,10 @@
         <v>371</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="J278" s="8" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="K278" t="s">
         <v>33</v>
@@ -14012,10 +14042,10 @@
         <v>19</v>
       </c>
       <c r="M278" t="s">
-        <v>577</v>
+        <v>78</v>
       </c>
       <c r="N278" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q278" s="8" t="s">
         <v>386</v>
@@ -14026,16 +14056,16 @@
     </row>
     <row r="280" spans="1:19">
       <c r="A280" s="7" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>837</v>
+        <v>105</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>370</v>
@@ -14050,10 +14080,10 @@
         <v>371</v>
       </c>
       <c r="I280" s="8" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="J280" s="8" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K280" t="s">
         <v>33</v>
@@ -14062,10 +14092,10 @@
         <v>19</v>
       </c>
       <c r="M280" t="s">
-        <v>695</v>
+        <v>577</v>
       </c>
       <c r="N280" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q280" s="8" t="s">
         <v>386</v>
@@ -14076,16 +14106,16 @@
     </row>
     <row r="282" spans="1:19">
       <c r="A282" s="7" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>656</v>
+        <v>846</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>370</v>
@@ -14100,10 +14130,10 @@
         <v>371</v>
       </c>
       <c r="I282" s="8" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="J282" s="8" t="s">
-        <v>788</v>
+        <v>847</v>
       </c>
       <c r="K282" t="s">
         <v>33</v>
@@ -14112,7 +14142,7 @@
         <v>19</v>
       </c>
       <c r="M282" t="s">
-        <v>403</v>
+        <v>695</v>
       </c>
       <c r="N282" t="s">
         <v>28</v>
@@ -14126,16 +14156,16 @@
     </row>
     <row r="284" spans="1:19">
       <c r="A284" s="7" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>227</v>
+        <v>656</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>370</v>
@@ -14150,10 +14180,10 @@
         <v>371</v>
       </c>
       <c r="I284" s="8" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="J284" s="8" t="s">
-        <v>844</v>
+        <v>797</v>
       </c>
       <c r="K284" t="s">
         <v>33</v>
@@ -14162,7 +14192,7 @@
         <v>19</v>
       </c>
       <c r="M284" t="s">
-        <v>184</v>
+        <v>403</v>
       </c>
       <c r="N284" t="s">
         <v>28</v>
@@ -14176,16 +14206,16 @@
     </row>
     <row r="286" spans="1:19">
       <c r="A286" s="7" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="E286" s="8" t="s">
         <v>370</v>
@@ -14200,25 +14230,25 @@
         <v>371</v>
       </c>
       <c r="I286" s="8" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="J286" s="8" t="s">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="K286" t="s">
         <v>33</v>
       </c>
       <c r="L286" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="M286" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
       <c r="N286" t="s">
         <v>28</v>
       </c>
       <c r="Q286" s="8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="S286" s="10" t="s">
         <v>373</v>
@@ -14226,16 +14256,16 @@
     </row>
     <row r="288" spans="1:19">
       <c r="A288" s="7" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>849</v>
+        <v>292</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>850</v>
+        <v>293</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>370</v>
@@ -14250,19 +14280,19 @@
         <v>371</v>
       </c>
       <c r="I288" s="8" t="s">
-        <v>772</v>
+        <v>130</v>
       </c>
       <c r="J288" s="8" t="s">
-        <v>851</v>
+        <v>808</v>
       </c>
       <c r="K288" t="s">
         <v>33</v>
       </c>
       <c r="L288" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="M288" t="s">
-        <v>648</v>
+        <v>282</v>
       </c>
       <c r="N288" t="s">
         <v>28</v>
@@ -14276,16 +14306,16 @@
     </row>
     <row r="290" spans="1:19">
       <c r="A290" s="7" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>115</v>
+        <v>858</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>116</v>
+        <v>859</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>370</v>
@@ -14300,25 +14330,25 @@
         <v>371</v>
       </c>
       <c r="I290" s="8" t="s">
-        <v>98</v>
+        <v>781</v>
       </c>
       <c r="J290" s="8" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="K290" t="s">
         <v>33</v>
       </c>
       <c r="L290" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="M290" t="s">
-        <v>58</v>
+        <v>648</v>
       </c>
       <c r="N290" t="s">
         <v>28</v>
       </c>
       <c r="Q290" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="S290" s="10" t="s">
         <v>373</v>
@@ -14326,16 +14356,16 @@
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="7" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>856</v>
+        <v>115</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>857</v>
+        <v>116</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>370</v>
@@ -14353,25 +14383,22 @@
         <v>98</v>
       </c>
       <c r="J292" s="8" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="K292" t="s">
         <v>33</v>
       </c>
       <c r="L292" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="M292" t="s">
+        <v>58</v>
       </c>
       <c r="N292" t="s">
         <v>28</v>
       </c>
-      <c r="O292" t="s">
-        <v>338</v>
-      </c>
-      <c r="P292" t="s">
-        <v>338</v>
-      </c>
       <c r="Q292" s="8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="S292" s="10" t="s">
         <v>373</v>
@@ -14379,16 +14406,16 @@
     </row>
     <row r="294" spans="1:19">
       <c r="A294" s="7" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>445</v>
+        <v>865</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>370</v>
@@ -14406,22 +14433,25 @@
         <v>98</v>
       </c>
       <c r="J294" s="8" t="s">
-        <v>826</v>
+        <v>789</v>
       </c>
       <c r="K294" t="s">
         <v>33</v>
       </c>
       <c r="L294" t="s">
-        <v>19</v>
-      </c>
-      <c r="M294" t="s">
-        <v>525</v>
+        <v>56</v>
       </c>
       <c r="N294" t="s">
         <v>28</v>
       </c>
+      <c r="O294" t="s">
+        <v>338</v>
+      </c>
+      <c r="P294" t="s">
+        <v>338</v>
+      </c>
       <c r="Q294" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="S294" s="10" t="s">
         <v>373</v>
@@ -14429,16 +14459,16 @@
     </row>
     <row r="296" spans="1:19">
       <c r="A296" s="7" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>863</v>
+        <v>445</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="E296" s="8" t="s">
         <v>370</v>
@@ -14453,27 +14483,77 @@
         <v>371</v>
       </c>
       <c r="I296" s="8" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
       <c r="J296" s="8" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="K296" t="s">
         <v>33</v>
       </c>
       <c r="L296" t="s">
+        <v>19</v>
+      </c>
+      <c r="M296" t="s">
+        <v>525</v>
+      </c>
+      <c r="N296" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q296" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="S296" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19">
+      <c r="A298" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F298" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H298" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I298" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="J298" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="K298" t="s">
+        <v>33</v>
+      </c>
+      <c r="L298" t="s">
         <v>380</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M298" t="s">
         <v>392</v>
       </c>
-      <c r="N296" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q296" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="S296" s="10" t="s">
+      <c r="N298" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q298" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="S298" s="10" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14735,8 +14815,8 @@
     <hyperlink ref="B245" r:id="rId254"/>
     <hyperlink ref="A247" r:id="rId255"/>
     <hyperlink ref="B247" r:id="rId256"/>
-    <hyperlink ref="A248" r:id="rId257"/>
-    <hyperlink ref="B248" r:id="rId258"/>
+    <hyperlink ref="A249" r:id="rId257"/>
+    <hyperlink ref="B249" r:id="rId258"/>
     <hyperlink ref="A250" r:id="rId259"/>
     <hyperlink ref="B250" r:id="rId260"/>
     <hyperlink ref="A252" r:id="rId261"/>
@@ -14785,6 +14865,8 @@
     <hyperlink ref="B294" r:id="rId304"/>
     <hyperlink ref="A296" r:id="rId305"/>
     <hyperlink ref="B296" r:id="rId306"/>
+    <hyperlink ref="A298" r:id="rId307"/>
+    <hyperlink ref="B298" r:id="rId308"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14865,7 +14947,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>388</v>
@@ -14889,13 +14971,13 @@
         <v>371</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="K2" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L2" t="s">
         <v>380</v>
@@ -14909,7 +14991,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>413</v>
@@ -14933,13 +15015,13 @@
         <v>371</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="K4" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -14953,7 +15035,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>436</v>
@@ -14977,13 +15059,13 @@
         <v>371</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K6" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -14997,7 +15079,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>449</v>
@@ -15021,13 +15103,13 @@
         <v>371</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="K8" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -15041,7 +15123,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>468</v>
@@ -15065,13 +15147,13 @@
         <v>371</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K10" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -15085,7 +15167,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>480</v>
@@ -15109,13 +15191,13 @@
         <v>371</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K12" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -15129,7 +15211,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>482</v>
@@ -15153,13 +15235,13 @@
         <v>371</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K14" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L14" t="s">
         <v>380</v>
@@ -15173,7 +15255,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>488</v>
@@ -15197,13 +15279,13 @@
         <v>371</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K16" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L16" t="s">
         <v>380</v>
@@ -15217,7 +15299,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>499</v>
@@ -15241,13 +15323,13 @@
         <v>371</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K18" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -15261,7 +15343,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>536</v>
@@ -15285,13 +15367,13 @@
         <v>371</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K20" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
@@ -15305,7 +15387,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>533</v>
@@ -15329,13 +15411,13 @@
         <v>371</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K22" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -15349,7 +15431,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>548</v>
@@ -15373,13 +15455,13 @@
         <v>371</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K24" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -15393,7 +15475,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>559</v>
@@ -15417,13 +15499,13 @@
         <v>371</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K26" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -15437,7 +15519,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>574</v>
@@ -15461,19 +15543,19 @@
         <v>371</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K28" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="N28" t="s">
         <v>28</v>
@@ -15481,7 +15563,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>579</v>
@@ -15505,13 +15587,13 @@
         <v>371</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K30" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L30" t="s">
         <v>19</v>
@@ -15525,7 +15607,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>583</v>
@@ -15549,13 +15631,13 @@
         <v>371</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K32" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
@@ -15569,7 +15651,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>585</v>
@@ -15593,13 +15675,13 @@
         <v>371</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K34" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
@@ -15613,7 +15695,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>588</v>
@@ -15637,13 +15719,13 @@
         <v>371</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K36" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -15657,16 +15739,16 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>370</v>
@@ -15681,13 +15763,13 @@
         <v>371</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K38" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L38" t="s">
         <v>380</v>
@@ -15701,7 +15783,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="7" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>602</v>
@@ -15725,13 +15807,13 @@
         <v>371</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K40" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -15745,7 +15827,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="7" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>610</v>
@@ -15769,13 +15851,13 @@
         <v>371</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="K42" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L42" t="s">
         <v>380</v>
@@ -15789,7 +15871,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="7" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>618</v>
@@ -15813,13 +15895,13 @@
         <v>371</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="K44" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L44" t="s">
         <v>56</v>
@@ -15836,7 +15918,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="7" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>630</v>
@@ -15860,13 +15942,13 @@
         <v>371</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K46" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L46" t="s">
         <v>19</v>
@@ -15880,7 +15962,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="7" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>635</v>
@@ -15904,13 +15986,13 @@
         <v>371</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K48" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L48" t="s">
         <v>56</v>
@@ -15927,7 +16009,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="7" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>639</v>
@@ -15951,13 +16033,13 @@
         <v>371</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K50" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L50" t="s">
         <v>56</v>
@@ -15969,7 +16051,7 @@
         <v>28</v>
       </c>
       <c r="O50" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="P50" t="s">
         <v>57</v>
@@ -15977,7 +16059,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="7" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>645</v>
@@ -16001,13 +16083,13 @@
         <v>371</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K52" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L52" t="s">
         <v>380</v>
@@ -16021,7 +16103,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="7" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>670</v>
@@ -16045,13 +16127,13 @@
         <v>371</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K54" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L54" t="s">
         <v>19</v>
@@ -16065,16 +16147,16 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="7" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>370</v>
@@ -16089,13 +16171,13 @@
         <v>371</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="K56" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L56" t="s">
         <v>19</v>
@@ -16109,16 +16191,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="7" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>370</v>
@@ -16133,13 +16215,13 @@
         <v>371</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K58" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L58" t="s">
         <v>19</v>
@@ -16153,7 +16235,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="7" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>741</v>
@@ -16177,13 +16259,13 @@
         <v>371</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K60" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L60" t="s">
         <v>19</v>
@@ -16197,7 +16279,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="7" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>738</v>
@@ -16221,13 +16303,13 @@
         <v>371</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="K62" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="L62" t="s">
         <v>19</v>
@@ -16383,16 +16465,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>370</v>
@@ -16407,10 +16489,10 @@
         <v>371</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="K2" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="L2" t="s">
         <v>380</v>
@@ -16424,10 +16506,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>128</v>
@@ -16448,10 +16530,10 @@
         <v>371</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="K4" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="L4" t="s">
         <v>517</v>
